--- a/data/cash_accounts.xlsx
+++ b/data/cash_accounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanchuang/Desktop/資產計算/investment_tracker/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6832A16-4ECD-9F4D-98D6-893EA3E13807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138D4E21-0CE5-4345-94C2-899A60FBBC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="34">
   <si>
     <t>Sean</t>
   </si>
@@ -400,6 +400,100 @@
     <t>出資比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>TWD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>系統銀行</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>台幣帳戶</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>活存</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>台股沒有錢的話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>畫面會報錯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> debug</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -408,7 +502,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +550,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -492,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -511,6 +618,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -815,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I324"/>
+  <dimension ref="A1:I325"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A300" zoomScale="133" workbookViewId="0">
-      <selection activeCell="A321" sqref="A321:A324"/>
+      <selection activeCell="D330" sqref="D330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -9303,6 +9412,35 @@
         <v>18.29</v>
       </c>
     </row>
+    <row r="325" spans="1:9" ht="18">
+      <c r="A325" s="8">
+        <v>45810</v>
+      </c>
+      <c r="B325" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C325" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D325" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E325" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F325" s="7">
+        <v>1</v>
+      </c>
+      <c r="G325" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H325" s="7">
+        <v>1</v>
+      </c>
+      <c r="I325" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I319" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/cash_accounts.xlsx
+++ b/data/cash_accounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanchuang/Desktop/資產計算/investment_tracker/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138D4E21-0CE5-4345-94C2-899A60FBBC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A12235-1AD7-E14D-BD85-AA9DEA8EB75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="monthly_balance" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">monthly_balance!$A$1:$I$319</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">monthly_balance!$A$1:$I$325</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="37">
   <si>
     <t>Sean</t>
   </si>
@@ -190,18 +190,6 @@
         <charset val="136"/>
       </rPr>
       <t>外幣帳戶</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>定存</t>
     </r>
   </si>
   <si>
@@ -494,6 +482,22 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>美金定存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First Trade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投資帳戶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -502,7 +506,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +553,13 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -599,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -620,6 +631,8 @@
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -924,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I325"/>
+  <dimension ref="A1:I327"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A300" zoomScale="133" workbookViewId="0">
-      <selection activeCell="D330" sqref="D330"/>
+      <selection activeCell="E328" sqref="E328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -960,13 +973,13 @@
         <v>8</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>9</v>
@@ -1320,8 +1333,8 @@
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>17</v>
+      <c r="D15" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>1</v>
@@ -1388,7 +1401,7 @@
         <v>80</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1427,8 +1440,8 @@
       <c r="C19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>17</v>
+      <c r="D19" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>0</v>
@@ -1453,8 +1466,8 @@
       <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>17</v>
+      <c r="D20" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>1</v>
@@ -1557,8 +1570,8 @@
       <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>17</v>
+      <c r="D24" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>0</v>
@@ -1583,8 +1596,8 @@
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>17</v>
+      <c r="D25" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>1</v>
@@ -1687,8 +1700,8 @@
       <c r="C29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>17</v>
+      <c r="D29" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>0</v>
@@ -1713,8 +1726,8 @@
       <c r="C30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>17</v>
+      <c r="D30" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>1</v>
@@ -1755,7 +1768,7 @@
         <v>558401</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1820,8 +1833,8 @@
       <c r="C34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>17</v>
+      <c r="D34" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>0</v>
@@ -1846,8 +1859,8 @@
       <c r="C35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>17</v>
+      <c r="D35" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>1</v>
@@ -1950,8 +1963,8 @@
       <c r="C39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>17</v>
+      <c r="D39" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>0</v>
@@ -1976,8 +1989,8 @@
       <c r="C40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>17</v>
+      <c r="D40" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>1</v>
@@ -2080,8 +2093,8 @@
       <c r="C44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>17</v>
+      <c r="D44" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>0</v>
@@ -2106,8 +2119,8 @@
       <c r="C45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>17</v>
+      <c r="D45" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>1</v>
@@ -2210,8 +2223,8 @@
       <c r="C49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>17</v>
+      <c r="D49" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>0</v>
@@ -2236,8 +2249,8 @@
       <c r="C50" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>17</v>
+      <c r="D50" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>1</v>
@@ -2278,7 +2291,7 @@
         <v>926522</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2343,8 +2356,8 @@
       <c r="C54" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>17</v>
+      <c r="D54" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>0</v>
@@ -2369,8 +2382,8 @@
       <c r="C55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>17</v>
+      <c r="D55" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>1</v>
@@ -2437,7 +2450,7 @@
         <v>649442</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2476,8 +2489,8 @@
       <c r="C59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>17</v>
+      <c r="D59" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>0</v>
@@ -2502,8 +2515,8 @@
       <c r="C60" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>17</v>
+      <c r="D60" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>1</v>
@@ -2570,7 +2583,7 @@
         <v>649442</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2609,8 +2622,8 @@
       <c r="C64" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>17</v>
+      <c r="D64" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>0</v>
@@ -2635,8 +2648,8 @@
       <c r="C65" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>17</v>
+      <c r="D65" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>1</v>
@@ -2739,8 +2752,8 @@
       <c r="C69" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>17</v>
+      <c r="D69" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>0</v>
@@ -2765,8 +2778,8 @@
       <c r="C70" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>17</v>
+      <c r="D70" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>1</v>
@@ -2869,8 +2882,8 @@
       <c r="C74" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>17</v>
+      <c r="D74" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>0</v>
@@ -2895,8 +2908,8 @@
       <c r="C75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>17</v>
+      <c r="D75" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>1</v>
@@ -2999,8 +3012,8 @@
       <c r="C79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>17</v>
+      <c r="D79" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>0</v>
@@ -3025,8 +3038,8 @@
       <c r="C80" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>17</v>
+      <c r="D80" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>1</v>
@@ -3093,7 +3106,7 @@
         <v>884</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3132,8 +3145,8 @@
       <c r="C84" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>17</v>
+      <c r="D84" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>0</v>
@@ -3158,8 +3171,8 @@
       <c r="C85" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>17</v>
+      <c r="D85" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>1</v>
@@ -3200,7 +3213,7 @@
         <v>82564</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3265,8 +3278,8 @@
       <c r="C89" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>17</v>
+      <c r="D89" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>0</v>
@@ -3291,8 +3304,8 @@
       <c r="C90" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>17</v>
+      <c r="D90" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>1</v>
@@ -3395,8 +3408,8 @@
       <c r="C94" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>17</v>
+      <c r="D94" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>0</v>
@@ -3421,8 +3434,8 @@
       <c r="C95" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>17</v>
+      <c r="D95" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>1</v>
@@ -3525,8 +3538,8 @@
       <c r="C99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>17</v>
+      <c r="D99" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>0</v>
@@ -3551,8 +3564,8 @@
       <c r="C100" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>17</v>
+      <c r="D100" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>1</v>
@@ -3655,8 +3668,8 @@
       <c r="C104" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>17</v>
+      <c r="D104" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>0</v>
@@ -3681,8 +3694,8 @@
       <c r="C105" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>17</v>
+      <c r="D105" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>1</v>
@@ -3785,8 +3798,8 @@
       <c r="C109" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>17</v>
+      <c r="D109" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>0</v>
@@ -3811,8 +3824,8 @@
       <c r="C110" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>17</v>
+      <c r="D110" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>1</v>
@@ -3915,8 +3928,8 @@
       <c r="C114" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>17</v>
+      <c r="D114" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>0</v>
@@ -3941,8 +3954,8 @@
       <c r="C115" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>17</v>
+      <c r="D115" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>1</v>
@@ -4045,8 +4058,8 @@
       <c r="C119" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>17</v>
+      <c r="D119" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>0</v>
@@ -4071,8 +4084,8 @@
       <c r="C120" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>17</v>
+      <c r="D120" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>1</v>
@@ -4175,8 +4188,8 @@
       <c r="C124" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>17</v>
+      <c r="D124" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>0</v>
@@ -4201,8 +4214,8 @@
       <c r="C125" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>17</v>
+      <c r="D125" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>1</v>
@@ -4243,7 +4256,7 @@
         <v>40951</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4308,8 +4321,8 @@
       <c r="C129" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>17</v>
+      <c r="D129" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>0</v>
@@ -4334,8 +4347,8 @@
       <c r="C130" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>17</v>
+      <c r="D130" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>1</v>
@@ -4438,8 +4451,8 @@
       <c r="C134" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>17</v>
+      <c r="D134" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>0</v>
@@ -4464,8 +4477,8 @@
       <c r="C135" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>17</v>
+      <c r="D135" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>1</v>
@@ -4568,8 +4581,8 @@
       <c r="C139" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>17</v>
+      <c r="D139" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>0</v>
@@ -4594,8 +4607,8 @@
       <c r="C140" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>17</v>
+      <c r="D140" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>1</v>
@@ -4698,8 +4711,8 @@
       <c r="C144" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>17</v>
+      <c r="D144" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>0</v>
@@ -4724,8 +4737,8 @@
       <c r="C145" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>17</v>
+      <c r="D145" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>1</v>
@@ -4828,8 +4841,8 @@
       <c r="C149" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>17</v>
+      <c r="D149" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>0</v>
@@ -4854,8 +4867,8 @@
       <c r="C150" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D150" s="2" t="s">
-        <v>17</v>
+      <c r="D150" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>1</v>
@@ -4958,8 +4971,8 @@
       <c r="C154" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>17</v>
+      <c r="D154" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>0</v>
@@ -4984,8 +4997,8 @@
       <c r="C155" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D155" s="2" t="s">
-        <v>17</v>
+      <c r="D155" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>1</v>
@@ -5088,8 +5101,8 @@
       <c r="C159" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>17</v>
+      <c r="D159" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>0</v>
@@ -5114,8 +5127,8 @@
       <c r="C160" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>17</v>
+      <c r="D160" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>1</v>
@@ -5218,8 +5231,8 @@
       <c r="C164" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D164" s="2" t="s">
-        <v>17</v>
+      <c r="D164" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>0</v>
@@ -5244,8 +5257,8 @@
       <c r="C165" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D165" s="2" t="s">
-        <v>17</v>
+      <c r="D165" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>1</v>
@@ -5348,8 +5361,8 @@
       <c r="C169" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D169" s="2" t="s">
-        <v>17</v>
+      <c r="D169" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>0</v>
@@ -5374,8 +5387,8 @@
       <c r="C170" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D170" s="2" t="s">
-        <v>17</v>
+      <c r="D170" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>1</v>
@@ -5478,8 +5491,8 @@
       <c r="C174" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D174" s="2" t="s">
-        <v>17</v>
+      <c r="D174" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E174" s="5" t="s">
         <v>0</v>
@@ -5504,8 +5517,8 @@
       <c r="C175" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>17</v>
+      <c r="D175" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E175" s="5" t="s">
         <v>1</v>
@@ -5608,8 +5621,8 @@
       <c r="C179" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D179" s="2" t="s">
-        <v>17</v>
+      <c r="D179" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E179" s="5" t="s">
         <v>0</v>
@@ -5634,8 +5647,8 @@
       <c r="C180" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>17</v>
+      <c r="D180" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E180" s="5" t="s">
         <v>1</v>
@@ -5738,8 +5751,8 @@
       <c r="C184" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D184" s="2" t="s">
-        <v>17</v>
+      <c r="D184" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E184" s="5" t="s">
         <v>0</v>
@@ -5764,8 +5777,8 @@
       <c r="C185" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D185" s="2" t="s">
-        <v>17</v>
+      <c r="D185" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E185" s="5" t="s">
         <v>1</v>
@@ -5832,7 +5845,7 @@
         <v>1085036</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -5871,8 +5884,8 @@
       <c r="C189" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D189" s="2" t="s">
-        <v>17</v>
+      <c r="D189" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E189" s="5" t="s">
         <v>0</v>
@@ -5897,8 +5910,8 @@
       <c r="C190" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D190" s="2" t="s">
-        <v>17</v>
+      <c r="D190" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E190" s="5" t="s">
         <v>1</v>
@@ -6001,8 +6014,8 @@
       <c r="C194" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D194" s="2" t="s">
-        <v>17</v>
+      <c r="D194" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E194" s="5" t="s">
         <v>0</v>
@@ -6027,8 +6040,8 @@
       <c r="C195" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D195" s="2" t="s">
-        <v>17</v>
+      <c r="D195" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E195" s="5" t="s">
         <v>1</v>
@@ -6131,8 +6144,8 @@
       <c r="C199" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D199" s="2" t="s">
-        <v>17</v>
+      <c r="D199" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E199" s="5" t="s">
         <v>0</v>
@@ -6157,8 +6170,8 @@
       <c r="C200" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D200" s="2" t="s">
-        <v>17</v>
+      <c r="D200" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>1</v>
@@ -6261,8 +6274,8 @@
       <c r="C204" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D204" s="2" t="s">
-        <v>17</v>
+      <c r="D204" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>0</v>
@@ -6287,8 +6300,8 @@
       <c r="C205" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D205" s="2" t="s">
-        <v>17</v>
+      <c r="D205" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E205" s="5" t="s">
         <v>1</v>
@@ -6391,8 +6404,8 @@
       <c r="C209" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D209" s="2" t="s">
-        <v>17</v>
+      <c r="D209" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>0</v>
@@ -6417,8 +6430,8 @@
       <c r="C210" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D210" s="2" t="s">
-        <v>17</v>
+      <c r="D210" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>1</v>
@@ -6521,8 +6534,8 @@
       <c r="C214" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D214" s="2" t="s">
-        <v>17</v>
+      <c r="D214" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>0</v>
@@ -6547,8 +6560,8 @@
       <c r="C215" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D215" s="2" t="s">
-        <v>17</v>
+      <c r="D215" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E215" s="5" t="s">
         <v>1</v>
@@ -6651,8 +6664,8 @@
       <c r="C219" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D219" s="2" t="s">
-        <v>17</v>
+      <c r="D219" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E219" s="5" t="s">
         <v>0</v>
@@ -6677,8 +6690,8 @@
       <c r="C220" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D220" s="2" t="s">
-        <v>17</v>
+      <c r="D220" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E220" s="5" t="s">
         <v>1</v>
@@ -6781,8 +6794,8 @@
       <c r="C224" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D224" s="2" t="s">
-        <v>17</v>
+      <c r="D224" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>0</v>
@@ -6807,8 +6820,8 @@
       <c r="C225" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D225" s="2" t="s">
-        <v>17</v>
+      <c r="D225" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E225" s="5" t="s">
         <v>1</v>
@@ -6911,8 +6924,8 @@
       <c r="C229" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D229" s="2" t="s">
-        <v>17</v>
+      <c r="D229" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>0</v>
@@ -6937,8 +6950,8 @@
       <c r="C230" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D230" s="2" t="s">
-        <v>17</v>
+      <c r="D230" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E230" s="5" t="s">
         <v>1</v>
@@ -7041,8 +7054,8 @@
       <c r="C234" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D234" s="2" t="s">
-        <v>17</v>
+      <c r="D234" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E234" s="5" t="s">
         <v>0</v>
@@ -7067,8 +7080,8 @@
       <c r="C235" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D235" s="2" t="s">
-        <v>17</v>
+      <c r="D235" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E235" s="5" t="s">
         <v>1</v>
@@ -7171,8 +7184,8 @@
       <c r="C239" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D239" s="2" t="s">
-        <v>17</v>
+      <c r="D239" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E239" s="5" t="s">
         <v>0</v>
@@ -7275,8 +7288,8 @@
       <c r="C243" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D243" s="2" t="s">
-        <v>17</v>
+      <c r="D243" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E243" s="5" t="s">
         <v>1</v>
@@ -7301,8 +7314,8 @@
       <c r="C244" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D244" s="2" t="s">
-        <v>17</v>
+      <c r="D244" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E244" s="5" t="s">
         <v>0</v>
@@ -7327,8 +7340,8 @@
       <c r="C245" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D245" s="2" t="s">
-        <v>17</v>
+      <c r="D245" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E245" s="5" t="s">
         <v>1</v>
@@ -7431,8 +7444,8 @@
       <c r="C249" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D249" s="2" t="s">
-        <v>17</v>
+      <c r="D249" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E249" s="5" t="s">
         <v>0</v>
@@ -7457,8 +7470,8 @@
       <c r="C250" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D250" s="2" t="s">
-        <v>17</v>
+      <c r="D250" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E250" s="5" t="s">
         <v>1</v>
@@ -7499,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -7564,8 +7577,8 @@
       <c r="C254" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D254" s="2" t="s">
-        <v>17</v>
+      <c r="D254" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E254" s="5" t="s">
         <v>0</v>
@@ -7590,8 +7603,8 @@
       <c r="C255" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D255" s="2" t="s">
-        <v>17</v>
+      <c r="D255" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E255" s="5" t="s">
         <v>1</v>
@@ -7684,7 +7697,7 @@
         <v>0</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -7697,8 +7710,8 @@
       <c r="C259" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D259" s="2" t="s">
-        <v>17</v>
+      <c r="D259" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E259" s="5" t="s">
         <v>0</v>
@@ -7723,8 +7736,8 @@
       <c r="C260" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D260" s="2" t="s">
-        <v>17</v>
+      <c r="D260" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E260" s="5" t="s">
         <v>1</v>
@@ -7817,7 +7830,7 @@
         <v>0</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -7830,8 +7843,8 @@
       <c r="C264" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D264" s="2" t="s">
-        <v>17</v>
+      <c r="D264" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E264" s="5" t="s">
         <v>0</v>
@@ -7856,8 +7869,8 @@
       <c r="C265" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D265" s="2" t="s">
-        <v>17</v>
+      <c r="D265" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E265" s="5" t="s">
         <v>1</v>
@@ -7960,8 +7973,8 @@
       <c r="C269" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D269" s="2" t="s">
-        <v>17</v>
+      <c r="D269" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E269" s="5" t="s">
         <v>0</v>
@@ -7986,8 +7999,8 @@
       <c r="C270" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D270" s="2" t="s">
-        <v>17</v>
+      <c r="D270" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E270" s="5" t="s">
         <v>1</v>
@@ -8090,8 +8103,8 @@
       <c r="C274" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D274" s="2" t="s">
-        <v>17</v>
+      <c r="D274" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E274" s="5" t="s">
         <v>0</v>
@@ -8116,8 +8129,8 @@
       <c r="C275" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D275" s="2" t="s">
-        <v>17</v>
+      <c r="D275" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E275" s="5" t="s">
         <v>1</v>
@@ -8220,8 +8233,8 @@
       <c r="C279" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D279" s="2" t="s">
-        <v>17</v>
+      <c r="D279" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E279" s="5" t="s">
         <v>0</v>
@@ -8246,8 +8259,8 @@
       <c r="C280" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D280" s="2" t="s">
-        <v>17</v>
+      <c r="D280" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E280" s="5" t="s">
         <v>1</v>
@@ -8350,8 +8363,8 @@
       <c r="C284" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D284" s="2" t="s">
-        <v>17</v>
+      <c r="D284" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E284" s="5" t="s">
         <v>0</v>
@@ -8376,8 +8389,8 @@
       <c r="C285" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D285" s="2" t="s">
-        <v>17</v>
+      <c r="D285" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E285" s="5" t="s">
         <v>1</v>
@@ -8480,8 +8493,8 @@
       <c r="C289" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D289" s="2" t="s">
-        <v>17</v>
+      <c r="D289" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E289" s="5" t="s">
         <v>0</v>
@@ -8506,8 +8519,8 @@
       <c r="C290" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D290" s="2" t="s">
-        <v>17</v>
+      <c r="D290" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E290" s="5" t="s">
         <v>1</v>
@@ -8610,8 +8623,8 @@
       <c r="C294" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D294" s="2" t="s">
-        <v>17</v>
+      <c r="D294" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E294" s="5" t="s">
         <v>0</v>
@@ -8636,8 +8649,8 @@
       <c r="C295" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D295" s="2" t="s">
-        <v>17</v>
+      <c r="D295" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E295" s="5" t="s">
         <v>1</v>
@@ -8740,8 +8753,8 @@
       <c r="C299" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D299" s="2" t="s">
-        <v>17</v>
+      <c r="D299" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E299" s="5" t="s">
         <v>0</v>
@@ -8766,8 +8779,8 @@
       <c r="C300" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D300" s="2" t="s">
-        <v>17</v>
+      <c r="D300" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E300" s="5" t="s">
         <v>1</v>
@@ -8870,8 +8883,8 @@
       <c r="C304" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D304" s="2" t="s">
-        <v>17</v>
+      <c r="D304" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E304" s="5" t="s">
         <v>0</v>
@@ -8896,8 +8909,8 @@
       <c r="C305" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D305" s="2" t="s">
-        <v>17</v>
+      <c r="D305" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E305" s="5" t="s">
         <v>1</v>
@@ -9000,8 +9013,8 @@
       <c r="C309" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D309" s="2" t="s">
-        <v>17</v>
+      <c r="D309" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E309" s="5" t="s">
         <v>0</v>
@@ -9026,8 +9039,8 @@
       <c r="C310" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D310" s="2" t="s">
-        <v>17</v>
+      <c r="D310" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E310" s="5" t="s">
         <v>1</v>
@@ -9052,8 +9065,8 @@
       <c r="C311" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D311" s="2" t="s">
-        <v>17</v>
+      <c r="D311" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E311" s="5" t="s">
         <v>0</v>
@@ -9156,8 +9169,8 @@
       <c r="C315" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D315" s="2" t="s">
-        <v>17</v>
+      <c r="D315" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E315" s="5" t="s">
         <v>1</v>
@@ -9182,8 +9195,8 @@
       <c r="C316" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D316" s="2" t="s">
-        <v>17</v>
+      <c r="D316" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E316" s="5" t="s">
         <v>0</v>
@@ -9224,7 +9237,7 @@
         <v>1194671</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="318" spans="1:9">
@@ -9289,8 +9302,8 @@
       <c r="C320" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D320" s="2" t="s">
-        <v>17</v>
+      <c r="D320" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E320" s="5" t="s">
         <v>1</v>
@@ -9315,8 +9328,8 @@
       <c r="C321" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D321" s="2" t="s">
-        <v>17</v>
+      <c r="D321" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E321" s="5" t="s">
         <v>0</v>
@@ -9357,7 +9370,7 @@
         <v>1194671</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="323" spans="1:9">
@@ -9417,32 +9430,84 @@
         <v>45810</v>
       </c>
       <c r="B325" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C325" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C325" s="9" t="s">
+      <c r="D325" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D325" s="9" t="s">
+      <c r="E325" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F325" s="7">
+        <v>1</v>
+      </c>
+      <c r="G325" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H325" s="7">
+        <v>1</v>
+      </c>
+      <c r="I325" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E325" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F325" s="7">
-        <v>1</v>
-      </c>
-      <c r="G325" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H325" s="7">
-        <v>1</v>
-      </c>
-      <c r="I325" s="9" t="s">
-        <v>33</v>
+    </row>
+    <row r="326" spans="1:9" ht="18">
+      <c r="A326" s="3">
+        <v>45810</v>
+      </c>
+      <c r="B326" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D326" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E326" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F326" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="G326" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H326" s="5">
+        <v>7897.04</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" ht="18">
+      <c r="A327" s="3">
+        <v>45810</v>
+      </c>
+      <c r="B327" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D327" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E327" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F327" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="G327" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H327" s="5">
+        <v>7897.04</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I319" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I325" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/cash_accounts.xlsx
+++ b/data/cash_accounts.xlsx
@@ -8,22 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanchuang/Desktop/資產計算/investment_tracker/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A12235-1AD7-E14D-BD85-AA9DEA8EB75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06716FF-4427-414C-B536-B5FC54D1AE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_balance" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">monthly_balance!$A$1:$I$325</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">monthly_balance!$A$1:$I$333</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="37">
   <si>
     <t>Sean</t>
   </si>
@@ -394,21 +407,6 @@
   </si>
   <si>
     <r>
-      <t>LO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>系統銀行</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
@@ -498,15 +496,32 @@
     <t>Lo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LO for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>系統設定</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,6 +589,13 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -607,10 +629,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -629,13 +654,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="貨幣" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -937,21 +974,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I327"/>
+  <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" zoomScale="133" workbookViewId="0">
-      <selection activeCell="E328" sqref="E328"/>
+    <sheetView tabSelected="1" topLeftCell="A302" zoomScale="133" workbookViewId="0">
+      <selection activeCell="G330" sqref="G330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.19921875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.59765625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.19921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="80.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
@@ -978,7 +1016,7 @@
       <c r="G1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="11" t="s">
         <v>25</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -1007,7 +1045,7 @@
       <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="12">
         <v>270443</v>
       </c>
     </row>
@@ -1033,7 +1071,7 @@
       <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="12">
         <v>225857</v>
       </c>
     </row>
@@ -1059,7 +1097,7 @@
       <c r="G4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="12">
         <v>651238</v>
       </c>
     </row>
@@ -1085,7 +1123,7 @@
       <c r="G5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="12">
         <v>505326</v>
       </c>
     </row>
@@ -1111,7 +1149,7 @@
       <c r="G6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="12">
         <v>550620</v>
       </c>
     </row>
@@ -1137,7 +1175,7 @@
       <c r="G7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="12">
         <v>619257</v>
       </c>
     </row>
@@ -1163,7 +1201,7 @@
       <c r="G8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="12">
         <v>224010</v>
       </c>
     </row>
@@ -1189,7 +1227,7 @@
       <c r="G9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="12">
         <v>617255</v>
       </c>
     </row>
@@ -1215,7 +1253,7 @@
       <c r="G10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="12">
         <v>776482</v>
       </c>
     </row>
@@ -1241,7 +1279,7 @@
       <c r="G11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="12">
         <v>847312</v>
       </c>
     </row>
@@ -1267,7 +1305,7 @@
       <c r="G12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="12">
         <v>632695</v>
       </c>
     </row>
@@ -1293,7 +1331,7 @@
       <c r="G13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="12">
         <v>919098</v>
       </c>
     </row>
@@ -1319,7 +1357,7 @@
       <c r="G14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="12">
         <v>80</v>
       </c>
     </row>
@@ -1333,8 +1371,8 @@
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>33</v>
+      <c r="D15" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>1</v>
@@ -1345,7 +1383,7 @@
       <c r="G15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="12">
         <v>10000</v>
       </c>
     </row>
@@ -1371,7 +1409,7 @@
       <c r="G16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="12">
         <v>583654</v>
       </c>
     </row>
@@ -1397,7 +1435,7 @@
       <c r="G17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="12">
         <v>80</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -1426,7 +1464,7 @@
       <c r="G18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1440,8 +1478,8 @@
       <c r="C19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>33</v>
+      <c r="D19" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>0</v>
@@ -1452,7 +1490,7 @@
       <c r="G19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="12">
         <v>10000</v>
       </c>
     </row>
@@ -1466,8 +1504,8 @@
       <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>33</v>
+      <c r="D20" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>1</v>
@@ -1478,7 +1516,7 @@
       <c r="G20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="12">
         <v>10000</v>
       </c>
     </row>
@@ -1504,7 +1542,7 @@
       <c r="G21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="12">
         <v>1130828</v>
       </c>
     </row>
@@ -1530,7 +1568,7 @@
       <c r="G22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="12">
         <v>83546</v>
       </c>
     </row>
@@ -1556,7 +1594,7 @@
       <c r="G23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1570,8 +1608,8 @@
       <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>33</v>
+      <c r="D24" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>0</v>
@@ -1582,7 +1620,7 @@
       <c r="G24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="12">
         <v>10000</v>
       </c>
     </row>
@@ -1596,8 +1634,8 @@
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>33</v>
+      <c r="D25" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>1</v>
@@ -1608,7 +1646,7 @@
       <c r="G25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="12">
         <v>10000</v>
       </c>
     </row>
@@ -1634,7 +1672,7 @@
       <c r="G26" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="12">
         <v>186101</v>
       </c>
     </row>
@@ -1660,7 +1698,7 @@
       <c r="G27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="12">
         <v>199495</v>
       </c>
     </row>
@@ -1686,7 +1724,7 @@
       <c r="G28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1700,8 +1738,8 @@
       <c r="C29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>33</v>
+      <c r="D29" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>0</v>
@@ -1712,7 +1750,7 @@
       <c r="G29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="12">
         <v>10000</v>
       </c>
     </row>
@@ -1726,8 +1764,8 @@
       <c r="C30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>33</v>
+      <c r="D30" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>1</v>
@@ -1738,7 +1776,7 @@
       <c r="G30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="12">
         <v>10000</v>
       </c>
     </row>
@@ -1764,7 +1802,7 @@
       <c r="G31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="12">
         <v>558401</v>
       </c>
       <c r="I31" s="2" t="s">
@@ -1793,7 +1831,7 @@
       <c r="G32" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="12">
         <v>318019</v>
       </c>
     </row>
@@ -1819,7 +1857,7 @@
       <c r="G33" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1833,8 +1871,8 @@
       <c r="C34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>33</v>
+      <c r="D34" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>0</v>
@@ -1845,7 +1883,7 @@
       <c r="G34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="12">
         <v>10000</v>
       </c>
     </row>
@@ -1859,8 +1897,8 @@
       <c r="C35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>33</v>
+      <c r="D35" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>1</v>
@@ -1871,7 +1909,7 @@
       <c r="G35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="12">
         <v>10000</v>
       </c>
     </row>
@@ -1897,7 +1935,7 @@
       <c r="G36" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="12">
         <v>68408</v>
       </c>
     </row>
@@ -1923,7 +1961,7 @@
       <c r="G37" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="12">
         <v>439028</v>
       </c>
     </row>
@@ -1949,7 +1987,7 @@
       <c r="G38" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1963,8 +2001,8 @@
       <c r="C39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>33</v>
+      <c r="D39" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>0</v>
@@ -1975,7 +2013,7 @@
       <c r="G39" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="12">
         <v>10000</v>
       </c>
     </row>
@@ -1989,8 +2027,8 @@
       <c r="C40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>33</v>
+      <c r="D40" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>1</v>
@@ -2001,7 +2039,7 @@
       <c r="G40" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="12">
         <v>10000</v>
       </c>
     </row>
@@ -2027,7 +2065,7 @@
       <c r="G41" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="12">
         <v>10702</v>
       </c>
     </row>
@@ -2053,7 +2091,7 @@
       <c r="G42" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="12">
         <v>499998</v>
       </c>
     </row>
@@ -2079,7 +2117,7 @@
       <c r="G43" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="12">
         <v>0</v>
       </c>
     </row>
@@ -2093,8 +2131,8 @@
       <c r="C44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>33</v>
+      <c r="D44" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>0</v>
@@ -2105,7 +2143,7 @@
       <c r="G44" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="12">
         <v>10000</v>
       </c>
     </row>
@@ -2119,8 +2157,8 @@
       <c r="C45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>33</v>
+      <c r="D45" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>1</v>
@@ -2131,7 +2169,7 @@
       <c r="G45" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="12">
         <v>10000</v>
       </c>
     </row>
@@ -2157,7 +2195,7 @@
       <c r="G46" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="12">
         <v>1150</v>
       </c>
     </row>
@@ -2183,7 +2221,7 @@
       <c r="G47" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="12">
         <v>540811</v>
       </c>
     </row>
@@ -2209,7 +2247,7 @@
       <c r="G48" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="12">
         <v>0</v>
       </c>
     </row>
@@ -2223,8 +2261,8 @@
       <c r="C49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>33</v>
+      <c r="D49" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>0</v>
@@ -2235,7 +2273,7 @@
       <c r="G49" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="12">
         <v>10000</v>
       </c>
     </row>
@@ -2249,8 +2287,8 @@
       <c r="C50" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>33</v>
+      <c r="D50" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>1</v>
@@ -2261,7 +2299,7 @@
       <c r="G50" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="12">
         <v>10000</v>
       </c>
     </row>
@@ -2287,7 +2325,7 @@
       <c r="G51" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51" s="12">
         <v>926522</v>
       </c>
       <c r="I51" s="2" t="s">
@@ -2316,7 +2354,7 @@
       <c r="G52" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52" s="12">
         <v>649442</v>
       </c>
     </row>
@@ -2342,7 +2380,7 @@
       <c r="G53" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="12">
         <v>0</v>
       </c>
     </row>
@@ -2356,8 +2394,8 @@
       <c r="C54" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="10" t="s">
-        <v>33</v>
+      <c r="D54" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>0</v>
@@ -2368,7 +2406,7 @@
       <c r="G54" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54" s="12">
         <v>10000</v>
       </c>
     </row>
@@ -2382,8 +2420,8 @@
       <c r="C55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="10" t="s">
-        <v>33</v>
+      <c r="D55" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>1</v>
@@ -2394,7 +2432,7 @@
       <c r="G55" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55" s="12">
         <v>10000</v>
       </c>
     </row>
@@ -2420,7 +2458,7 @@
       <c r="G56" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56" s="12">
         <v>926522</v>
       </c>
     </row>
@@ -2446,7 +2484,7 @@
       <c r="G57" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="12">
         <v>649442</v>
       </c>
       <c r="I57" s="2" t="s">
@@ -2475,7 +2513,7 @@
       <c r="G58" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H58" s="12">
         <v>0</v>
       </c>
     </row>
@@ -2489,8 +2527,8 @@
       <c r="C59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="10" t="s">
-        <v>33</v>
+      <c r="D59" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>0</v>
@@ -2501,7 +2539,7 @@
       <c r="G59" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59" s="12">
         <v>10000</v>
       </c>
     </row>
@@ -2515,8 +2553,8 @@
       <c r="C60" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="10" t="s">
-        <v>33</v>
+      <c r="D60" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>1</v>
@@ -2527,7 +2565,7 @@
       <c r="G60" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H60" s="5">
+      <c r="H60" s="12">
         <v>10000</v>
       </c>
     </row>
@@ -2553,7 +2591,7 @@
       <c r="G61" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61" s="12">
         <v>926522</v>
       </c>
     </row>
@@ -2579,7 +2617,7 @@
       <c r="G62" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62" s="12">
         <v>649442</v>
       </c>
       <c r="I62" s="2" t="s">
@@ -2608,7 +2646,7 @@
       <c r="G63" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63" s="12">
         <v>0</v>
       </c>
     </row>
@@ -2622,8 +2660,8 @@
       <c r="C64" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="10" t="s">
-        <v>33</v>
+      <c r="D64" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>0</v>
@@ -2634,11 +2672,11 @@
       <c r="G64" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H64" s="5">
+      <c r="H64" s="12">
         <v>10000</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:9">
       <c r="A65" s="3">
         <v>44286</v>
       </c>
@@ -2648,8 +2686,8 @@
       <c r="C65" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="10" t="s">
-        <v>33</v>
+      <c r="D65" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>1</v>
@@ -2660,11 +2698,11 @@
       <c r="G65" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65" s="12">
         <v>10000</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:9">
       <c r="A66" s="3">
         <v>44286</v>
       </c>
@@ -2686,11 +2724,11 @@
       <c r="G66" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H66" s="12">
         <v>76092</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:9">
       <c r="A67" s="3">
         <v>44286</v>
       </c>
@@ -2712,11 +2750,11 @@
       <c r="G67" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H67" s="12">
         <v>83348</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:9">
       <c r="A68" s="3">
         <v>44286</v>
       </c>
@@ -2738,11 +2776,11 @@
       <c r="G68" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H68" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="H68" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="3">
         <v>44286</v>
       </c>
@@ -2752,8 +2790,8 @@
       <c r="C69" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="10" t="s">
-        <v>33</v>
+      <c r="D69" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>0</v>
@@ -2764,11 +2802,11 @@
       <c r="G69" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H69" s="12">
         <v>10000</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:9">
       <c r="A70" s="3">
         <v>44316</v>
       </c>
@@ -2778,8 +2816,8 @@
       <c r="C70" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="10" t="s">
-        <v>33</v>
+      <c r="D70" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>1</v>
@@ -2790,11 +2828,11 @@
       <c r="G70" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H70" s="5">
+      <c r="H70" s="12">
         <v>10000</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:9">
       <c r="A71" s="3">
         <v>44316</v>
       </c>
@@ -2816,11 +2854,11 @@
       <c r="G71" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H71" s="12">
         <v>104386</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:9">
       <c r="A72" s="3">
         <v>44316</v>
       </c>
@@ -2842,11 +2880,11 @@
       <c r="G72" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H72" s="5">
+      <c r="H72" s="12">
         <v>153031</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:9">
       <c r="A73" s="3">
         <v>44316</v>
       </c>
@@ -2868,11 +2906,11 @@
       <c r="G73" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H73" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="H73" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="3">
         <v>44316</v>
       </c>
@@ -2882,8 +2920,8 @@
       <c r="C74" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="10" t="s">
-        <v>33</v>
+      <c r="D74" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>0</v>
@@ -2894,11 +2932,11 @@
       <c r="G74" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H74" s="5">
+      <c r="H74" s="12">
         <v>10000</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:9">
       <c r="A75" s="3">
         <v>44347</v>
       </c>
@@ -2908,8 +2946,8 @@
       <c r="C75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="10" t="s">
-        <v>33</v>
+      <c r="D75" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>1</v>
@@ -2920,11 +2958,14 @@
       <c r="G75" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H75" s="5">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="H75" s="12">
+        <v>22220</v>
+      </c>
+      <c r="I75" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="3">
         <v>44347</v>
       </c>
@@ -2946,11 +2987,11 @@
       <c r="G76" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H76" s="5">
+      <c r="H76" s="12">
         <v>10751</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:9">
       <c r="A77" s="3">
         <v>44347</v>
       </c>
@@ -2972,11 +3013,11 @@
       <c r="G77" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H77" s="12">
         <v>884</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:9">
       <c r="A78" s="3">
         <v>44347</v>
       </c>
@@ -2998,11 +3039,11 @@
       <c r="G78" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H78" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="H78" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="3">
         <v>44347</v>
       </c>
@@ -3012,8 +3053,8 @@
       <c r="C79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="10" t="s">
-        <v>33</v>
+      <c r="D79" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>0</v>
@@ -3024,11 +3065,11 @@
       <c r="G79" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H79" s="5">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="H79" s="12">
+        <v>22220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="3">
         <v>44377</v>
       </c>
@@ -3038,8 +3079,8 @@
       <c r="C80" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="10" t="s">
-        <v>33</v>
+      <c r="D80" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>1</v>
@@ -3050,8 +3091,8 @@
       <c r="G80" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H80" s="5">
-        <v>20000</v>
+      <c r="H80" s="12">
+        <v>22220</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3076,7 +3117,7 @@
       <c r="G81" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="5">
+      <c r="H81" s="12">
         <v>4153</v>
       </c>
     </row>
@@ -3102,7 +3143,7 @@
       <c r="G82" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H82" s="5">
+      <c r="H82" s="12">
         <v>884</v>
       </c>
       <c r="I82" s="2" t="s">
@@ -3131,7 +3172,7 @@
       <c r="G83" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="5">
+      <c r="H83" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3145,8 +3186,8 @@
       <c r="C84" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D84" s="10" t="s">
-        <v>33</v>
+      <c r="D84" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>0</v>
@@ -3157,8 +3198,8 @@
       <c r="G84" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H84" s="5">
-        <v>20000</v>
+      <c r="H84" s="12">
+        <v>22220</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3171,8 +3212,8 @@
       <c r="C85" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="10" t="s">
-        <v>33</v>
+      <c r="D85" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>1</v>
@@ -3183,8 +3224,8 @@
       <c r="G85" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H85" s="5">
-        <v>20000</v>
+      <c r="H85" s="12">
+        <v>22220</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3209,7 +3250,7 @@
       <c r="G86" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H86" s="7">
+      <c r="H86" s="13">
         <v>82564</v>
       </c>
       <c r="I86" s="2" t="s">
@@ -3238,7 +3279,7 @@
       <c r="G87" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H87" s="5">
+      <c r="H87" s="12">
         <v>165558</v>
       </c>
     </row>
@@ -3264,7 +3305,7 @@
       <c r="G88" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H88" s="5">
+      <c r="H88" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3278,8 +3319,8 @@
       <c r="C89" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="10" t="s">
-        <v>33</v>
+      <c r="D89" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>0</v>
@@ -3290,8 +3331,8 @@
       <c r="G89" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H89" s="5">
-        <v>20000</v>
+      <c r="H89" s="12">
+        <v>22220</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3304,8 +3345,8 @@
       <c r="C90" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="10" t="s">
-        <v>33</v>
+      <c r="D90" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>1</v>
@@ -3316,8 +3357,8 @@
       <c r="G90" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H90" s="5">
-        <v>20000</v>
+      <c r="H90" s="12">
+        <v>22220</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3342,7 +3383,7 @@
       <c r="G91" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H91" s="5">
+      <c r="H91" s="12">
         <v>82564</v>
       </c>
     </row>
@@ -3368,7 +3409,7 @@
       <c r="G92" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H92" s="5">
+      <c r="H92" s="12">
         <v>171036</v>
       </c>
     </row>
@@ -3394,7 +3435,7 @@
       <c r="G93" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H93" s="5">
+      <c r="H93" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3408,8 +3449,8 @@
       <c r="C94" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D94" s="10" t="s">
-        <v>33</v>
+      <c r="D94" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>0</v>
@@ -3420,8 +3461,8 @@
       <c r="G94" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="5">
-        <v>20000</v>
+      <c r="H94" s="12">
+        <v>22220</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3434,8 +3475,8 @@
       <c r="C95" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D95" s="10" t="s">
-        <v>33</v>
+      <c r="D95" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>1</v>
@@ -3446,8 +3487,8 @@
       <c r="G95" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H95" s="5">
-        <v>20000</v>
+      <c r="H95" s="12">
+        <v>22220</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3472,7 +3513,7 @@
       <c r="G96" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H96" s="5">
+      <c r="H96" s="12">
         <v>870862</v>
       </c>
     </row>
@@ -3498,7 +3539,7 @@
       <c r="G97" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H97" s="5">
+      <c r="H97" s="12">
         <v>535626</v>
       </c>
     </row>
@@ -3524,7 +3565,7 @@
       <c r="G98" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H98" s="5">
+      <c r="H98" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3538,8 +3579,8 @@
       <c r="C99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="10" t="s">
-        <v>33</v>
+      <c r="D99" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>0</v>
@@ -3550,8 +3591,8 @@
       <c r="G99" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H99" s="5">
-        <v>20000</v>
+      <c r="H99" s="12">
+        <v>22220</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3564,8 +3605,8 @@
       <c r="C100" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D100" s="10" t="s">
-        <v>33</v>
+      <c r="D100" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>1</v>
@@ -3576,8 +3617,8 @@
       <c r="G100" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="5">
-        <v>20000</v>
+      <c r="H100" s="12">
+        <v>22220</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3602,7 +3643,7 @@
       <c r="G101" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H101" s="5">
+      <c r="H101" s="12">
         <v>325812</v>
       </c>
     </row>
@@ -3628,7 +3669,7 @@
       <c r="G102" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H102" s="5">
+      <c r="H102" s="12">
         <v>616414</v>
       </c>
     </row>
@@ -3654,7 +3695,7 @@
       <c r="G103" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H103" s="5">
+      <c r="H103" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3668,8 +3709,8 @@
       <c r="C104" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D104" s="10" t="s">
-        <v>33</v>
+      <c r="D104" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>0</v>
@@ -3680,8 +3721,8 @@
       <c r="G104" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H104" s="5">
-        <v>20000</v>
+      <c r="H104" s="12">
+        <v>22220</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3694,8 +3735,8 @@
       <c r="C105" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D105" s="10" t="s">
-        <v>33</v>
+      <c r="D105" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>1</v>
@@ -3706,8 +3747,8 @@
       <c r="G105" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H105" s="5">
-        <v>20000</v>
+      <c r="H105" s="12">
+        <v>22220</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3732,7 +3773,7 @@
       <c r="G106" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H106" s="5">
+      <c r="H106" s="12">
         <v>193611</v>
       </c>
     </row>
@@ -3758,7 +3799,7 @@
       <c r="G107" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H107" s="5">
+      <c r="H107" s="12">
         <v>370712</v>
       </c>
     </row>
@@ -3784,7 +3825,7 @@
       <c r="G108" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H108" s="5">
+      <c r="H108" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3798,8 +3839,8 @@
       <c r="C109" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D109" s="10" t="s">
-        <v>33</v>
+      <c r="D109" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>0</v>
@@ -3810,8 +3851,8 @@
       <c r="G109" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H109" s="5">
-        <v>20000</v>
+      <c r="H109" s="12">
+        <v>22220</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3824,8 +3865,8 @@
       <c r="C110" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D110" s="10" t="s">
-        <v>33</v>
+      <c r="D110" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>1</v>
@@ -3836,8 +3877,8 @@
       <c r="G110" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H110" s="5">
-        <v>20000</v>
+      <c r="H110" s="12">
+        <v>22220</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3862,7 +3903,7 @@
       <c r="G111" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H111" s="5">
+      <c r="H111" s="12">
         <v>75378</v>
       </c>
     </row>
@@ -3888,7 +3929,7 @@
       <c r="G112" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H112" s="5">
+      <c r="H112" s="12">
         <v>604970</v>
       </c>
     </row>
@@ -3914,7 +3955,7 @@
       <c r="G113" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H113" s="5">
+      <c r="H113" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3928,8 +3969,8 @@
       <c r="C114" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D114" s="10" t="s">
-        <v>33</v>
+      <c r="D114" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>0</v>
@@ -3940,8 +3981,8 @@
       <c r="G114" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H114" s="5">
-        <v>20000</v>
+      <c r="H114" s="12">
+        <v>22220</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3954,8 +3995,8 @@
       <c r="C115" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D115" s="10" t="s">
-        <v>33</v>
+      <c r="D115" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>1</v>
@@ -3966,8 +4007,8 @@
       <c r="G115" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H115" s="5">
-        <v>20000</v>
+      <c r="H115" s="12">
+        <v>22220</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3992,7 +4033,7 @@
       <c r="G116" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H116" s="5">
+      <c r="H116" s="12">
         <v>151135</v>
       </c>
     </row>
@@ -4018,7 +4059,7 @@
       <c r="G117" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H117" s="5">
+      <c r="H117" s="12">
         <v>535959</v>
       </c>
     </row>
@@ -4044,7 +4085,7 @@
       <c r="G118" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H118" s="5">
+      <c r="H118" s="12">
         <v>0</v>
       </c>
     </row>
@@ -4058,8 +4099,8 @@
       <c r="C119" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D119" s="10" t="s">
-        <v>33</v>
+      <c r="D119" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>0</v>
@@ -4070,8 +4111,8 @@
       <c r="G119" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H119" s="5">
-        <v>20000</v>
+      <c r="H119" s="12">
+        <v>22220</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4084,8 +4125,8 @@
       <c r="C120" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D120" s="10" t="s">
-        <v>33</v>
+      <c r="D120" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>1</v>
@@ -4096,8 +4137,8 @@
       <c r="G120" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H120" s="5">
-        <v>20000</v>
+      <c r="H120" s="12">
+        <v>22220</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4122,7 +4163,7 @@
       <c r="G121" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H121" s="5">
+      <c r="H121" s="12">
         <v>152412</v>
       </c>
     </row>
@@ -4148,7 +4189,7 @@
       <c r="G122" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H122" s="5">
+      <c r="H122" s="12">
         <v>587870</v>
       </c>
     </row>
@@ -4174,7 +4215,7 @@
       <c r="G123" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H123" s="5">
+      <c r="H123" s="12">
         <v>0</v>
       </c>
     </row>
@@ -4188,8 +4229,8 @@
       <c r="C124" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D124" s="10" t="s">
-        <v>33</v>
+      <c r="D124" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>0</v>
@@ -4200,8 +4241,8 @@
       <c r="G124" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H124" s="5">
-        <v>20000</v>
+      <c r="H124" s="12">
+        <v>22220</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4214,8 +4255,8 @@
       <c r="C125" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D125" s="10" t="s">
-        <v>33</v>
+      <c r="D125" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>1</v>
@@ -4226,8 +4267,8 @@
       <c r="G125" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H125" s="5">
-        <v>20000</v>
+      <c r="H125" s="12">
+        <v>22220</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4252,7 +4293,7 @@
       <c r="G126" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H126" s="7">
+      <c r="H126" s="13">
         <v>40951</v>
       </c>
       <c r="I126" s="2" t="s">
@@ -4281,7 +4322,7 @@
       <c r="G127" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H127" s="5">
+      <c r="H127" s="12">
         <v>40951</v>
       </c>
     </row>
@@ -4307,11 +4348,11 @@
       <c r="G128" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H128" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="H128" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="3">
         <v>44651</v>
       </c>
@@ -4321,8 +4362,8 @@
       <c r="C129" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D129" s="10" t="s">
-        <v>33</v>
+      <c r="D129" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>0</v>
@@ -4333,11 +4374,11 @@
       <c r="G129" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H129" s="5">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="H129" s="12">
+        <v>22220</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="3">
         <v>44681</v>
       </c>
@@ -4347,8 +4388,8 @@
       <c r="C130" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D130" s="10" t="s">
-        <v>33</v>
+      <c r="D130" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>1</v>
@@ -4359,11 +4400,11 @@
       <c r="G130" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H130" s="5">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="H130" s="12">
+        <v>22220</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="3">
         <v>44681</v>
       </c>
@@ -4385,11 +4426,11 @@
       <c r="G131" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H131" s="5">
+      <c r="H131" s="12">
         <v>50858</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:9">
       <c r="A132" s="3">
         <v>44681</v>
       </c>
@@ -4411,11 +4452,11 @@
       <c r="G132" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H132" s="5">
+      <c r="H132" s="12">
         <v>69436</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:9">
       <c r="A133" s="3">
         <v>44681</v>
       </c>
@@ -4437,11 +4478,11 @@
       <c r="G133" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H133" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="H133" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="3">
         <v>44681</v>
       </c>
@@ -4451,8 +4492,8 @@
       <c r="C134" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D134" s="10" t="s">
-        <v>33</v>
+      <c r="D134" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>0</v>
@@ -4463,11 +4504,11 @@
       <c r="G134" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H134" s="5">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="H134" s="12">
+        <v>22220</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="3">
         <v>44712</v>
       </c>
@@ -4477,8 +4518,8 @@
       <c r="C135" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D135" s="10" t="s">
-        <v>33</v>
+      <c r="D135" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>1</v>
@@ -4489,11 +4530,14 @@
       <c r="G135" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H135" s="5">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="H135" s="12">
+        <v>34484</v>
+      </c>
+      <c r="I135" s="2">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="3">
         <v>44712</v>
       </c>
@@ -4515,11 +4559,11 @@
       <c r="G136" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H136" s="5">
+      <c r="H136" s="12">
         <v>94956</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:9">
       <c r="A137" s="3">
         <v>44712</v>
       </c>
@@ -4541,11 +4585,11 @@
       <c r="G137" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H137" s="5">
+      <c r="H137" s="12">
         <v>305</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:9">
       <c r="A138" s="3">
         <v>44712</v>
       </c>
@@ -4567,11 +4611,11 @@
       <c r="G138" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H138" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="H138" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="3">
         <v>44712</v>
       </c>
@@ -4581,8 +4625,8 @@
       <c r="C139" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D139" s="10" t="s">
-        <v>33</v>
+      <c r="D139" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>0</v>
@@ -4593,11 +4637,11 @@
       <c r="G139" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H139" s="5">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="H139" s="12">
+        <v>34484</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="3">
         <v>44742</v>
       </c>
@@ -4607,8 +4651,8 @@
       <c r="C140" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D140" s="10" t="s">
-        <v>33</v>
+      <c r="D140" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>1</v>
@@ -4619,11 +4663,11 @@
       <c r="G140" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H140" s="5">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="H140" s="12">
+        <v>34484</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="3">
         <v>44742</v>
       </c>
@@ -4645,11 +4689,11 @@
       <c r="G141" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H141" s="5">
+      <c r="H141" s="12">
         <v>44963</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:9">
       <c r="A142" s="3">
         <v>44742</v>
       </c>
@@ -4671,11 +4715,11 @@
       <c r="G142" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H142" s="5">
+      <c r="H142" s="12">
         <v>188148</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:9">
       <c r="A143" s="3">
         <v>44742</v>
       </c>
@@ -4697,11 +4741,11 @@
       <c r="G143" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H143" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="H143" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="3">
         <v>44742</v>
       </c>
@@ -4711,8 +4755,8 @@
       <c r="C144" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D144" s="10" t="s">
-        <v>33</v>
+      <c r="D144" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>0</v>
@@ -4723,8 +4767,8 @@
       <c r="G144" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H144" s="5">
-        <v>30000</v>
+      <c r="H144" s="12">
+        <v>34484</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4737,8 +4781,8 @@
       <c r="C145" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D145" s="10" t="s">
-        <v>33</v>
+      <c r="D145" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>1</v>
@@ -4749,8 +4793,8 @@
       <c r="G145" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H145" s="5">
-        <v>30000</v>
+      <c r="H145" s="12">
+        <v>34484</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4775,7 +4819,7 @@
       <c r="G146" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H146" s="5">
+      <c r="H146" s="12">
         <v>126219</v>
       </c>
     </row>
@@ -4801,7 +4845,7 @@
       <c r="G147" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H147" s="5">
+      <c r="H147" s="12">
         <v>35415</v>
       </c>
     </row>
@@ -4827,7 +4871,7 @@
       <c r="G148" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H148" s="5">
+      <c r="H148" s="12">
         <v>0</v>
       </c>
     </row>
@@ -4841,8 +4885,8 @@
       <c r="C149" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D149" s="10" t="s">
-        <v>33</v>
+      <c r="D149" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>0</v>
@@ -4853,8 +4897,8 @@
       <c r="G149" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H149" s="5">
-        <v>30000</v>
+      <c r="H149" s="12">
+        <v>34484</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4867,8 +4911,8 @@
       <c r="C150" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D150" s="10" t="s">
-        <v>33</v>
+      <c r="D150" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>1</v>
@@ -4879,8 +4923,8 @@
       <c r="G150" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H150" s="5">
-        <v>30000</v>
+      <c r="H150" s="12">
+        <v>34484</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4905,7 +4949,7 @@
       <c r="G151" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H151" s="5">
+      <c r="H151" s="12">
         <v>122803</v>
       </c>
     </row>
@@ -4931,7 +4975,7 @@
       <c r="G152" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H152" s="5">
+      <c r="H152" s="12">
         <v>44674</v>
       </c>
     </row>
@@ -4957,7 +5001,7 @@
       <c r="G153" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H153" s="5">
+      <c r="H153" s="12">
         <v>0</v>
       </c>
     </row>
@@ -4971,8 +5015,8 @@
       <c r="C154" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D154" s="10" t="s">
-        <v>33</v>
+      <c r="D154" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>0</v>
@@ -4983,8 +5027,8 @@
       <c r="G154" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H154" s="5">
-        <v>30000</v>
+      <c r="H154" s="12">
+        <v>34484</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4997,8 +5041,8 @@
       <c r="C155" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D155" s="10" t="s">
-        <v>33</v>
+      <c r="D155" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>1</v>
@@ -5009,8 +5053,8 @@
       <c r="G155" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H155" s="5">
-        <v>30000</v>
+      <c r="H155" s="12">
+        <v>34484</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5035,7 +5079,7 @@
       <c r="G156" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H156" s="5">
+      <c r="H156" s="12">
         <v>131410</v>
       </c>
     </row>
@@ -5061,7 +5105,7 @@
       <c r="G157" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H157" s="5">
+      <c r="H157" s="12">
         <v>433124</v>
       </c>
     </row>
@@ -5087,7 +5131,7 @@
       <c r="G158" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H158" s="5">
+      <c r="H158" s="12">
         <v>0</v>
       </c>
     </row>
@@ -5101,8 +5145,8 @@
       <c r="C159" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D159" s="10" t="s">
-        <v>33</v>
+      <c r="D159" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>0</v>
@@ -5113,8 +5157,8 @@
       <c r="G159" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H159" s="5">
-        <v>30000</v>
+      <c r="H159" s="12">
+        <v>34484</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5127,8 +5171,8 @@
       <c r="C160" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D160" s="10" t="s">
-        <v>33</v>
+      <c r="D160" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>1</v>
@@ -5139,8 +5183,8 @@
       <c r="G160" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H160" s="5">
-        <v>30000</v>
+      <c r="H160" s="12">
+        <v>34484</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5165,7 +5209,7 @@
       <c r="G161" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H161" s="5">
+      <c r="H161" s="12">
         <v>1063</v>
       </c>
     </row>
@@ -5191,7 +5235,7 @@
       <c r="G162" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H162" s="5">
+      <c r="H162" s="12">
         <v>1022533</v>
       </c>
     </row>
@@ -5217,7 +5261,7 @@
       <c r="G163" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H163" s="5">
+      <c r="H163" s="12">
         <v>0</v>
       </c>
     </row>
@@ -5231,8 +5275,8 @@
       <c r="C164" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D164" s="10" t="s">
-        <v>33</v>
+      <c r="D164" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>0</v>
@@ -5243,8 +5287,8 @@
       <c r="G164" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H164" s="5">
-        <v>30000</v>
+      <c r="H164" s="12">
+        <v>34484</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5257,8 +5301,8 @@
       <c r="C165" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D165" s="10" t="s">
-        <v>33</v>
+      <c r="D165" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>1</v>
@@ -5269,8 +5313,8 @@
       <c r="G165" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H165" s="5">
-        <v>30000</v>
+      <c r="H165" s="12">
+        <v>34484</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5295,7 +5339,7 @@
       <c r="G166" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H166" s="5">
+      <c r="H166" s="12">
         <v>489493</v>
       </c>
     </row>
@@ -5321,7 +5365,7 @@
       <c r="G167" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H167" s="5">
+      <c r="H167" s="12">
         <v>1087717</v>
       </c>
     </row>
@@ -5347,7 +5391,7 @@
       <c r="G168" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H168" s="5">
+      <c r="H168" s="12">
         <v>0</v>
       </c>
     </row>
@@ -5361,8 +5405,8 @@
       <c r="C169" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D169" s="10" t="s">
-        <v>33</v>
+      <c r="D169" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>0</v>
@@ -5373,8 +5417,8 @@
       <c r="G169" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H169" s="5">
-        <v>30000</v>
+      <c r="H169" s="12">
+        <v>34484</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5387,8 +5431,8 @@
       <c r="C170" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D170" s="10" t="s">
-        <v>33</v>
+      <c r="D170" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>1</v>
@@ -5399,8 +5443,8 @@
       <c r="G170" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H170" s="5">
-        <v>30000</v>
+      <c r="H170" s="12">
+        <v>34484</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5425,7 +5469,7 @@
       <c r="G171" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H171" s="5">
+      <c r="H171" s="12">
         <v>25415</v>
       </c>
     </row>
@@ -5451,7 +5495,7 @@
       <c r="G172" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H172" s="5">
+      <c r="H172" s="12">
         <v>752412</v>
       </c>
     </row>
@@ -5477,7 +5521,7 @@
       <c r="G173" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H173" s="5">
+      <c r="H173" s="12">
         <v>0</v>
       </c>
     </row>
@@ -5491,8 +5535,8 @@
       <c r="C174" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D174" s="10" t="s">
-        <v>33</v>
+      <c r="D174" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E174" s="5" t="s">
         <v>0</v>
@@ -5503,8 +5547,8 @@
       <c r="G174" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H174" s="5">
-        <v>30000</v>
+      <c r="H174" s="12">
+        <v>34484</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5517,8 +5561,8 @@
       <c r="C175" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D175" s="10" t="s">
-        <v>33</v>
+      <c r="D175" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E175" s="5" t="s">
         <v>1</v>
@@ -5529,8 +5573,8 @@
       <c r="G175" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H175" s="5">
-        <v>30000</v>
+      <c r="H175" s="12">
+        <v>34484</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5555,7 +5599,7 @@
       <c r="G176" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H176" s="5">
+      <c r="H176" s="12">
         <v>62305</v>
       </c>
     </row>
@@ -5581,7 +5625,7 @@
       <c r="G177" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H177" s="5">
+      <c r="H177" s="12">
         <v>814424</v>
       </c>
     </row>
@@ -5607,7 +5651,7 @@
       <c r="G178" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H178" s="5">
+      <c r="H178" s="12">
         <v>0</v>
       </c>
     </row>
@@ -5621,8 +5665,8 @@
       <c r="C179" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D179" s="10" t="s">
-        <v>33</v>
+      <c r="D179" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E179" s="5" t="s">
         <v>0</v>
@@ -5633,8 +5677,8 @@
       <c r="G179" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H179" s="5">
-        <v>30000</v>
+      <c r="H179" s="12">
+        <v>34484</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -5647,8 +5691,8 @@
       <c r="C180" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D180" s="10" t="s">
-        <v>33</v>
+      <c r="D180" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E180" s="5" t="s">
         <v>1</v>
@@ -5659,8 +5703,8 @@
       <c r="G180" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H180" s="5">
-        <v>30000</v>
+      <c r="H180" s="12">
+        <v>34484</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -5685,7 +5729,7 @@
       <c r="G181" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H181" s="5">
+      <c r="H181" s="12">
         <v>66305</v>
       </c>
     </row>
@@ -5711,7 +5755,7 @@
       <c r="G182" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H182" s="5">
+      <c r="H182" s="12">
         <v>1085036</v>
       </c>
     </row>
@@ -5737,7 +5781,7 @@
       <c r="G183" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H183" s="5">
+      <c r="H183" s="12">
         <v>0</v>
       </c>
     </row>
@@ -5751,8 +5795,8 @@
       <c r="C184" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D184" s="10" t="s">
-        <v>33</v>
+      <c r="D184" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E184" s="5" t="s">
         <v>0</v>
@@ -5763,8 +5807,8 @@
       <c r="G184" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H184" s="5">
-        <v>30000</v>
+      <c r="H184" s="12">
+        <v>34484</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -5777,8 +5821,8 @@
       <c r="C185" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D185" s="10" t="s">
-        <v>33</v>
+      <c r="D185" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E185" s="5" t="s">
         <v>1</v>
@@ -5789,8 +5833,8 @@
       <c r="G185" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H185" s="5">
-        <v>30000</v>
+      <c r="H185" s="12">
+        <v>34484</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -5815,7 +5859,7 @@
       <c r="G186" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H186" s="5">
+      <c r="H186" s="12">
         <v>249592</v>
       </c>
     </row>
@@ -5841,7 +5885,7 @@
       <c r="G187" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H187" s="5">
+      <c r="H187" s="12">
         <v>1085036</v>
       </c>
       <c r="I187" s="2" t="s">
@@ -5870,7 +5914,7 @@
       <c r="G188" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H188" s="5">
+      <c r="H188" s="12">
         <v>0</v>
       </c>
     </row>
@@ -5884,8 +5928,8 @@
       <c r="C189" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D189" s="10" t="s">
-        <v>33</v>
+      <c r="D189" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E189" s="5" t="s">
         <v>0</v>
@@ -5896,8 +5940,8 @@
       <c r="G189" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H189" s="5">
-        <v>30000</v>
+      <c r="H189" s="12">
+        <v>34484</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -5910,8 +5954,8 @@
       <c r="C190" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D190" s="10" t="s">
-        <v>33</v>
+      <c r="D190" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E190" s="5" t="s">
         <v>1</v>
@@ -5922,8 +5966,8 @@
       <c r="G190" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H190" s="5">
-        <v>30000</v>
+      <c r="H190" s="12">
+        <v>34484</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -5948,7 +5992,7 @@
       <c r="G191" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H191" s="5">
+      <c r="H191" s="12">
         <v>199063</v>
       </c>
     </row>
@@ -5974,11 +6018,11 @@
       <c r="G192" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H192" s="5">
+      <c r="H192" s="12">
         <v>1638721</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:9">
       <c r="A193" s="3">
         <v>45046</v>
       </c>
@@ -6000,11 +6044,11 @@
       <c r="G193" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H193" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+      <c r="H193" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="3">
         <v>45046</v>
       </c>
@@ -6014,8 +6058,8 @@
       <c r="C194" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D194" s="10" t="s">
-        <v>33</v>
+      <c r="D194" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E194" s="5" t="s">
         <v>0</v>
@@ -6026,11 +6070,11 @@
       <c r="G194" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H194" s="5">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+      <c r="H194" s="12">
+        <v>34484</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="3">
         <v>45077</v>
       </c>
@@ -6040,8 +6084,8 @@
       <c r="C195" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D195" s="10" t="s">
-        <v>33</v>
+      <c r="D195" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E195" s="5" t="s">
         <v>1</v>
@@ -6052,11 +6096,14 @@
       <c r="G195" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H195" s="5">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+      <c r="H195" s="12">
+        <v>46794</v>
+      </c>
+      <c r="I195" s="2">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="3">
         <v>45077</v>
       </c>
@@ -6078,11 +6125,11 @@
       <c r="G196" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H196" s="5">
+      <c r="H196" s="12">
         <v>410649</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:9">
       <c r="A197" s="3">
         <v>45077</v>
       </c>
@@ -6104,11 +6151,11 @@
       <c r="G197" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H197" s="5">
+      <c r="H197" s="12">
         <v>1580091</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:9">
       <c r="A198" s="3">
         <v>45077</v>
       </c>
@@ -6130,11 +6177,11 @@
       <c r="G198" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H198" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+      <c r="H198" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="3">
         <v>45077</v>
       </c>
@@ -6144,8 +6191,8 @@
       <c r="C199" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D199" s="10" t="s">
-        <v>33</v>
+      <c r="D199" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E199" s="5" t="s">
         <v>0</v>
@@ -6156,11 +6203,11 @@
       <c r="G199" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H199" s="5">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+      <c r="H199" s="12">
+        <v>46794</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="3">
         <v>45107</v>
       </c>
@@ -6170,8 +6217,8 @@
       <c r="C200" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D200" s="10" t="s">
-        <v>33</v>
+      <c r="D200" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>1</v>
@@ -6182,11 +6229,11 @@
       <c r="G200" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H200" s="5">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+      <c r="H200" s="12">
+        <v>46794</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="3">
         <v>45107</v>
       </c>
@@ -6208,11 +6255,11 @@
       <c r="G201" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H201" s="5">
+      <c r="H201" s="12">
         <v>410363</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:9">
       <c r="A202" s="3">
         <v>45107</v>
       </c>
@@ -6234,11 +6281,11 @@
       <c r="G202" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H202" s="5">
+      <c r="H202" s="12">
         <v>1669298</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:9">
       <c r="A203" s="3">
         <v>45107</v>
       </c>
@@ -6260,11 +6307,11 @@
       <c r="G203" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H203" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+      <c r="H203" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="3">
         <v>45107</v>
       </c>
@@ -6274,8 +6321,8 @@
       <c r="C204" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D204" s="10" t="s">
-        <v>33</v>
+      <c r="D204" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>0</v>
@@ -6286,11 +6333,11 @@
       <c r="G204" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H204" s="5">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+      <c r="H204" s="12">
+        <v>46794</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="3">
         <v>45138</v>
       </c>
@@ -6300,8 +6347,8 @@
       <c r="C205" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D205" s="10" t="s">
-        <v>33</v>
+      <c r="D205" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E205" s="5" t="s">
         <v>1</v>
@@ -6312,11 +6359,11 @@
       <c r="G205" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H205" s="5">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+      <c r="H205" s="12">
+        <v>46794</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="3">
         <v>45138</v>
       </c>
@@ -6338,11 +6385,11 @@
       <c r="G206" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H206" s="5">
+      <c r="H206" s="12">
         <v>413879</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:9">
       <c r="A207" s="3">
         <v>45138</v>
       </c>
@@ -6364,11 +6411,11 @@
       <c r="G207" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H207" s="5">
+      <c r="H207" s="12">
         <v>1570449</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:9">
       <c r="A208" s="3">
         <v>45138</v>
       </c>
@@ -6390,7 +6437,7 @@
       <c r="G208" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H208" s="5">
+      <c r="H208" s="12">
         <v>0</v>
       </c>
     </row>
@@ -6404,8 +6451,8 @@
       <c r="C209" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D209" s="10" t="s">
-        <v>33</v>
+      <c r="D209" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>0</v>
@@ -6416,8 +6463,8 @@
       <c r="G209" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H209" s="5">
-        <v>40000</v>
+      <c r="H209" s="12">
+        <v>46794</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6430,8 +6477,8 @@
       <c r="C210" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D210" s="10" t="s">
-        <v>33</v>
+      <c r="D210" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>1</v>
@@ -6442,8 +6489,8 @@
       <c r="G210" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H210" s="5">
-        <v>40000</v>
+      <c r="H210" s="12">
+        <v>46794</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6468,7 +6515,7 @@
       <c r="G211" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H211" s="5">
+      <c r="H211" s="12">
         <v>72827</v>
       </c>
     </row>
@@ -6494,7 +6541,7 @@
       <c r="G212" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H212" s="5">
+      <c r="H212" s="12">
         <v>1620152</v>
       </c>
     </row>
@@ -6520,7 +6567,7 @@
       <c r="G213" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H213" s="5">
+      <c r="H213" s="12">
         <v>0</v>
       </c>
     </row>
@@ -6534,8 +6581,8 @@
       <c r="C214" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D214" s="10" t="s">
-        <v>33</v>
+      <c r="D214" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>0</v>
@@ -6546,8 +6593,8 @@
       <c r="G214" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H214" s="5">
-        <v>40000</v>
+      <c r="H214" s="12">
+        <v>46794</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6560,8 +6607,8 @@
       <c r="C215" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D215" s="10" t="s">
-        <v>33</v>
+      <c r="D215" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E215" s="5" t="s">
         <v>1</v>
@@ -6572,8 +6619,8 @@
       <c r="G215" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H215" s="5">
-        <v>40000</v>
+      <c r="H215" s="12">
+        <v>46794</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6598,7 +6645,7 @@
       <c r="G216" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H216" s="5">
+      <c r="H216" s="12">
         <v>23734</v>
       </c>
     </row>
@@ -6624,7 +6671,7 @@
       <c r="G217" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H217" s="5">
+      <c r="H217" s="12">
         <v>1620152</v>
       </c>
     </row>
@@ -6650,7 +6697,7 @@
       <c r="G218" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H218" s="5">
+      <c r="H218" s="12">
         <v>0</v>
       </c>
     </row>
@@ -6664,8 +6711,8 @@
       <c r="C219" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D219" s="10" t="s">
-        <v>33</v>
+      <c r="D219" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E219" s="5" t="s">
         <v>0</v>
@@ -6676,8 +6723,8 @@
       <c r="G219" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H219" s="5">
-        <v>40000</v>
+      <c r="H219" s="12">
+        <v>46794</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6690,8 +6737,8 @@
       <c r="C220" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D220" s="10" t="s">
-        <v>33</v>
+      <c r="D220" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E220" s="5" t="s">
         <v>1</v>
@@ -6702,8 +6749,8 @@
       <c r="G220" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H220" s="5">
-        <v>40000</v>
+      <c r="H220" s="12">
+        <v>46794</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6728,7 +6775,7 @@
       <c r="G221" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H221" s="5">
+      <c r="H221" s="12">
         <v>24154</v>
       </c>
     </row>
@@ -6754,7 +6801,7 @@
       <c r="G222" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H222" s="5">
+      <c r="H222" s="12">
         <v>2173926</v>
       </c>
     </row>
@@ -6780,7 +6827,7 @@
       <c r="G223" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H223" s="5">
+      <c r="H223" s="12">
         <v>0</v>
       </c>
     </row>
@@ -6794,8 +6841,8 @@
       <c r="C224" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D224" s="10" t="s">
-        <v>33</v>
+      <c r="D224" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>0</v>
@@ -6806,8 +6853,8 @@
       <c r="G224" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H224" s="5">
-        <v>40000</v>
+      <c r="H224" s="12">
+        <v>46794</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6820,8 +6867,8 @@
       <c r="C225" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D225" s="10" t="s">
-        <v>33</v>
+      <c r="D225" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E225" s="5" t="s">
         <v>1</v>
@@ -6832,8 +6879,8 @@
       <c r="G225" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H225" s="5">
-        <v>40000</v>
+      <c r="H225" s="12">
+        <v>46794</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6858,7 +6905,7 @@
       <c r="G226" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H226" s="5">
+      <c r="H226" s="12">
         <v>3263</v>
       </c>
     </row>
@@ -6884,7 +6931,7 @@
       <c r="G227" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H227" s="5">
+      <c r="H227" s="12">
         <v>1831569</v>
       </c>
     </row>
@@ -6910,7 +6957,7 @@
       <c r="G228" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H228" s="5">
+      <c r="H228" s="12">
         <v>0</v>
       </c>
     </row>
@@ -6924,8 +6971,8 @@
       <c r="C229" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D229" s="10" t="s">
-        <v>33</v>
+      <c r="D229" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>0</v>
@@ -6936,8 +6983,8 @@
       <c r="G229" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H229" s="5">
-        <v>40000</v>
+      <c r="H229" s="12">
+        <v>46794</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6950,8 +6997,8 @@
       <c r="C230" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D230" s="10" t="s">
-        <v>33</v>
+      <c r="D230" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E230" s="5" t="s">
         <v>1</v>
@@ -6962,8 +7009,8 @@
       <c r="G230" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H230" s="5">
-        <v>40000</v>
+      <c r="H230" s="12">
+        <v>46794</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6988,7 +7035,7 @@
       <c r="G231" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H231" s="5">
+      <c r="H231" s="12">
         <v>68030</v>
       </c>
     </row>
@@ -7014,7 +7061,7 @@
       <c r="G232" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H232" s="5">
+      <c r="H232" s="12">
         <v>1830477</v>
       </c>
     </row>
@@ -7040,7 +7087,7 @@
       <c r="G233" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H233" s="5">
+      <c r="H233" s="12">
         <v>0</v>
       </c>
     </row>
@@ -7054,8 +7101,8 @@
       <c r="C234" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D234" s="10" t="s">
-        <v>33</v>
+      <c r="D234" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E234" s="5" t="s">
         <v>0</v>
@@ -7066,8 +7113,8 @@
       <c r="G234" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H234" s="5">
-        <v>40000</v>
+      <c r="H234" s="12">
+        <v>46794</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7080,8 +7127,8 @@
       <c r="C235" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D235" s="10" t="s">
-        <v>33</v>
+      <c r="D235" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E235" s="5" t="s">
         <v>1</v>
@@ -7092,8 +7139,8 @@
       <c r="G235" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H235" s="5">
-        <v>40000</v>
+      <c r="H235" s="12">
+        <v>46794</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7118,7 +7165,7 @@
       <c r="G236" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H236" s="5">
+      <c r="H236" s="12">
         <v>6072</v>
       </c>
     </row>
@@ -7144,7 +7191,7 @@
       <c r="G237" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H237" s="5">
+      <c r="H237" s="12">
         <v>1821680</v>
       </c>
     </row>
@@ -7170,7 +7217,7 @@
       <c r="G238" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H238" s="5">
+      <c r="H238" s="12">
         <v>0</v>
       </c>
     </row>
@@ -7184,8 +7231,8 @@
       <c r="C239" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D239" s="10" t="s">
-        <v>33</v>
+      <c r="D239" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E239" s="5" t="s">
         <v>0</v>
@@ -7196,8 +7243,8 @@
       <c r="G239" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H239" s="5">
-        <v>40000</v>
+      <c r="H239" s="12">
+        <v>46794</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7222,7 +7269,7 @@
       <c r="G240" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H240" s="5">
+      <c r="H240" s="12">
         <v>77040</v>
       </c>
     </row>
@@ -7248,7 +7295,7 @@
       <c r="G241" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H241" s="5">
+      <c r="H241" s="12">
         <v>1239876</v>
       </c>
     </row>
@@ -7274,7 +7321,7 @@
       <c r="G242" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H242" s="5">
+      <c r="H242" s="12">
         <v>0</v>
       </c>
     </row>
@@ -7288,8 +7335,8 @@
       <c r="C243" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D243" s="10" t="s">
-        <v>33</v>
+      <c r="D243" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E243" s="5" t="s">
         <v>1</v>
@@ -7300,8 +7347,8 @@
       <c r="G243" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H243" s="5">
-        <v>40000</v>
+      <c r="H243" s="12">
+        <v>46794</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -7314,8 +7361,8 @@
       <c r="C244" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D244" s="10" t="s">
-        <v>33</v>
+      <c r="D244" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E244" s="5" t="s">
         <v>0</v>
@@ -7326,8 +7373,8 @@
       <c r="G244" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H244" s="5">
-        <v>40000</v>
+      <c r="H244" s="12">
+        <v>46794</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -7340,8 +7387,8 @@
       <c r="C245" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D245" s="10" t="s">
-        <v>33</v>
+      <c r="D245" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E245" s="5" t="s">
         <v>1</v>
@@ -7352,8 +7399,8 @@
       <c r="G245" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H245" s="5">
-        <v>40000</v>
+      <c r="H245" s="12">
+        <v>46794</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -7378,7 +7425,7 @@
       <c r="G246" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H246" s="5">
+      <c r="H246" s="12">
         <v>7333</v>
       </c>
     </row>
@@ -7404,7 +7451,7 @@
       <c r="G247" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H247" s="5">
+      <c r="H247" s="12">
         <v>1101547</v>
       </c>
     </row>
@@ -7430,7 +7477,7 @@
       <c r="G248" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H248" s="5">
+      <c r="H248" s="12">
         <v>0</v>
       </c>
     </row>
@@ -7444,8 +7491,8 @@
       <c r="C249" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D249" s="10" t="s">
-        <v>33</v>
+      <c r="D249" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E249" s="5" t="s">
         <v>0</v>
@@ -7456,8 +7503,8 @@
       <c r="G249" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H249" s="5">
-        <v>40000</v>
+      <c r="H249" s="12">
+        <v>46794</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -7470,8 +7517,8 @@
       <c r="C250" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D250" s="10" t="s">
-        <v>33</v>
+      <c r="D250" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E250" s="5" t="s">
         <v>1</v>
@@ -7482,8 +7529,8 @@
       <c r="G250" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H250" s="5">
-        <v>40000</v>
+      <c r="H250" s="12">
+        <v>46794</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -7508,7 +7555,7 @@
       <c r="G251" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H251" s="7">
+      <c r="H251" s="13">
         <v>0</v>
       </c>
       <c r="I251" s="2" t="s">
@@ -7537,7 +7584,7 @@
       <c r="G252" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H252" s="5">
+      <c r="H252" s="12">
         <v>2151743</v>
       </c>
     </row>
@@ -7563,7 +7610,7 @@
       <c r="G253" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H253" s="5">
+      <c r="H253" s="12">
         <v>0</v>
       </c>
     </row>
@@ -7577,8 +7624,8 @@
       <c r="C254" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D254" s="10" t="s">
-        <v>33</v>
+      <c r="D254" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E254" s="5" t="s">
         <v>0</v>
@@ -7589,8 +7636,8 @@
       <c r="G254" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H254" s="5">
-        <v>40000</v>
+      <c r="H254" s="12">
+        <v>46794</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -7603,8 +7650,8 @@
       <c r="C255" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D255" s="10" t="s">
-        <v>33</v>
+      <c r="D255" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E255" s="5" t="s">
         <v>1</v>
@@ -7615,8 +7662,11 @@
       <c r="G255" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H255" s="5">
-        <v>50000</v>
+      <c r="H255" s="12">
+        <v>59159</v>
+      </c>
+      <c r="I255" s="2">
+        <v>2356</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -7641,7 +7691,7 @@
       <c r="G256" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H256" s="5">
+      <c r="H256" s="12">
         <v>83260</v>
       </c>
     </row>
@@ -7667,7 +7717,7 @@
       <c r="G257" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H257" s="5">
+      <c r="H257" s="12">
         <v>1386483</v>
       </c>
     </row>
@@ -7693,7 +7743,7 @@
       <c r="G258" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H258" s="7">
+      <c r="H258" s="13">
         <v>0</v>
       </c>
       <c r="I258" s="2" t="s">
@@ -7710,8 +7760,8 @@
       <c r="C259" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D259" s="10" t="s">
-        <v>33</v>
+      <c r="D259" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E259" s="5" t="s">
         <v>0</v>
@@ -7722,8 +7772,8 @@
       <c r="G259" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H259" s="5">
-        <v>50000</v>
+      <c r="H259" s="12">
+        <v>59159</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -7736,8 +7786,8 @@
       <c r="C260" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D260" s="10" t="s">
-        <v>33</v>
+      <c r="D260" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E260" s="5" t="s">
         <v>1</v>
@@ -7748,8 +7798,8 @@
       <c r="G260" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H260" s="5">
-        <v>50000</v>
+      <c r="H260" s="12">
+        <v>59159</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -7774,7 +7824,7 @@
       <c r="G261" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H261" s="5">
+      <c r="H261" s="12">
         <v>82763</v>
       </c>
     </row>
@@ -7800,7 +7850,7 @@
       <c r="G262" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H262" s="5">
+      <c r="H262" s="12">
         <v>430026</v>
       </c>
     </row>
@@ -7826,7 +7876,7 @@
       <c r="G263" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H263" s="7">
+      <c r="H263" s="13">
         <v>0</v>
       </c>
       <c r="I263" s="2" t="s">
@@ -7843,8 +7893,8 @@
       <c r="C264" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D264" s="10" t="s">
-        <v>33</v>
+      <c r="D264" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E264" s="5" t="s">
         <v>0</v>
@@ -7855,8 +7905,8 @@
       <c r="G264" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H264" s="5">
-        <v>50000</v>
+      <c r="H264" s="12">
+        <v>59159</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -7869,8 +7919,8 @@
       <c r="C265" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D265" s="10" t="s">
-        <v>33</v>
+      <c r="D265" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E265" s="5" t="s">
         <v>1</v>
@@ -7881,8 +7931,8 @@
       <c r="G265" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H265" s="5">
-        <v>50000</v>
+      <c r="H265" s="12">
+        <v>59159</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -7907,7 +7957,7 @@
       <c r="G266" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H266" s="5">
+      <c r="H266" s="12">
         <v>18806</v>
       </c>
     </row>
@@ -7933,7 +7983,7 @@
       <c r="G267" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H267" s="5">
+      <c r="H267" s="12">
         <v>781139</v>
       </c>
     </row>
@@ -7959,7 +8009,7 @@
       <c r="G268" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H268" s="5">
+      <c r="H268" s="12">
         <v>0</v>
       </c>
     </row>
@@ -7973,8 +8023,8 @@
       <c r="C269" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D269" s="10" t="s">
-        <v>33</v>
+      <c r="D269" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E269" s="5" t="s">
         <v>0</v>
@@ -7985,8 +8035,8 @@
       <c r="G269" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H269" s="5">
-        <v>50000</v>
+      <c r="H269" s="12">
+        <v>59159</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -7999,8 +8049,8 @@
       <c r="C270" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D270" s="10" t="s">
-        <v>33</v>
+      <c r="D270" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E270" s="5" t="s">
         <v>1</v>
@@ -8011,8 +8061,8 @@
       <c r="G270" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H270" s="5">
-        <v>50000</v>
+      <c r="H270" s="12">
+        <v>59159</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -8037,7 +8087,7 @@
       <c r="G271" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H271" s="5">
+      <c r="H271" s="12">
         <v>119704</v>
       </c>
     </row>
@@ -8063,7 +8113,7 @@
       <c r="G272" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H272" s="5">
+      <c r="H272" s="12">
         <v>101324</v>
       </c>
     </row>
@@ -8089,7 +8139,7 @@
       <c r="G273" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H273" s="5">
+      <c r="H273" s="12">
         <v>0</v>
       </c>
     </row>
@@ -8103,8 +8153,8 @@
       <c r="C274" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D274" s="10" t="s">
-        <v>33</v>
+      <c r="D274" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E274" s="5" t="s">
         <v>0</v>
@@ -8115,8 +8165,8 @@
       <c r="G274" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H274" s="5">
-        <v>50000</v>
+      <c r="H274" s="12">
+        <v>59159</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8129,8 +8179,8 @@
       <c r="C275" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D275" s="10" t="s">
-        <v>33</v>
+      <c r="D275" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E275" s="5" t="s">
         <v>1</v>
@@ -8141,8 +8191,8 @@
       <c r="G275" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H275" s="5">
-        <v>50000</v>
+      <c r="H275" s="12">
+        <v>59159</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8167,7 +8217,7 @@
       <c r="G276" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H276" s="5">
+      <c r="H276" s="12">
         <v>84784</v>
       </c>
     </row>
@@ -8193,7 +8243,7 @@
       <c r="G277" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H277" s="5">
+      <c r="H277" s="12">
         <v>189856</v>
       </c>
     </row>
@@ -8219,7 +8269,7 @@
       <c r="G278" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H278" s="5">
+      <c r="H278" s="12">
         <v>0</v>
       </c>
     </row>
@@ -8233,8 +8283,8 @@
       <c r="C279" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D279" s="10" t="s">
-        <v>33</v>
+      <c r="D279" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E279" s="5" t="s">
         <v>0</v>
@@ -8245,8 +8295,8 @@
       <c r="G279" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H279" s="5">
-        <v>50000</v>
+      <c r="H279" s="12">
+        <v>59159</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8259,8 +8309,8 @@
       <c r="C280" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D280" s="10" t="s">
-        <v>33</v>
+      <c r="D280" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E280" s="5" t="s">
         <v>1</v>
@@ -8271,8 +8321,8 @@
       <c r="G280" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H280" s="5">
-        <v>50000</v>
+      <c r="H280" s="12">
+        <v>59159</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8297,7 +8347,7 @@
       <c r="G281" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H281" s="5">
+      <c r="H281" s="12">
         <v>86146</v>
       </c>
     </row>
@@ -8323,7 +8373,7 @@
       <c r="G282" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H282" s="5">
+      <c r="H282" s="12">
         <v>174777</v>
       </c>
     </row>
@@ -8349,7 +8399,7 @@
       <c r="G283" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H283" s="5">
+      <c r="H283" s="12">
         <v>0</v>
       </c>
     </row>
@@ -8363,8 +8413,8 @@
       <c r="C284" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D284" s="10" t="s">
-        <v>33</v>
+      <c r="D284" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E284" s="5" t="s">
         <v>0</v>
@@ -8375,8 +8425,8 @@
       <c r="G284" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H284" s="5">
-        <v>50000</v>
+      <c r="H284" s="12">
+        <v>59159</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8389,8 +8439,8 @@
       <c r="C285" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D285" s="10" t="s">
-        <v>33</v>
+      <c r="D285" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E285" s="5" t="s">
         <v>1</v>
@@ -8401,8 +8451,8 @@
       <c r="G285" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H285" s="5">
-        <v>50000</v>
+      <c r="H285" s="12">
+        <v>59159</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8427,7 +8477,7 @@
       <c r="G286" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H286" s="5">
+      <c r="H286" s="12">
         <v>81364</v>
       </c>
     </row>
@@ -8453,7 +8503,7 @@
       <c r="G287" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H287" s="5">
+      <c r="H287" s="12">
         <v>114713</v>
       </c>
     </row>
@@ -8479,7 +8529,7 @@
       <c r="G288" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H288" s="5">
+      <c r="H288" s="12">
         <v>0</v>
       </c>
     </row>
@@ -8493,8 +8543,8 @@
       <c r="C289" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D289" s="10" t="s">
-        <v>33</v>
+      <c r="D289" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E289" s="5" t="s">
         <v>0</v>
@@ -8505,8 +8555,8 @@
       <c r="G289" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H289" s="5">
-        <v>50000</v>
+      <c r="H289" s="12">
+        <v>59159</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8519,8 +8569,8 @@
       <c r="C290" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D290" s="10" t="s">
-        <v>33</v>
+      <c r="D290" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E290" s="5" t="s">
         <v>1</v>
@@ -8531,8 +8581,8 @@
       <c r="G290" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H290" s="5">
-        <v>50000</v>
+      <c r="H290" s="12">
+        <v>59159</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8557,7 +8607,7 @@
       <c r="G291" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H291" s="5">
+      <c r="H291" s="12">
         <v>111020</v>
       </c>
     </row>
@@ -8583,7 +8633,7 @@
       <c r="G292" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H292" s="5">
+      <c r="H292" s="12">
         <v>433944</v>
       </c>
     </row>
@@ -8609,7 +8659,7 @@
       <c r="G293" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H293" s="5">
+      <c r="H293" s="12">
         <v>18.29</v>
       </c>
     </row>
@@ -8623,8 +8673,8 @@
       <c r="C294" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D294" s="10" t="s">
-        <v>33</v>
+      <c r="D294" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E294" s="5" t="s">
         <v>0</v>
@@ -8635,8 +8685,8 @@
       <c r="G294" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H294" s="5">
-        <v>50000</v>
+      <c r="H294" s="12">
+        <v>59159</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8649,8 +8699,8 @@
       <c r="C295" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D295" s="10" t="s">
-        <v>33</v>
+      <c r="D295" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E295" s="5" t="s">
         <v>1</v>
@@ -8661,8 +8711,8 @@
       <c r="G295" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H295" s="5">
-        <v>50000</v>
+      <c r="H295" s="12">
+        <v>59159</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8687,7 +8737,7 @@
       <c r="G296" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H296" s="5">
+      <c r="H296" s="12">
         <v>1081686</v>
       </c>
     </row>
@@ -8713,7 +8763,7 @@
       <c r="G297" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H297" s="5">
+      <c r="H297" s="12">
         <v>210011</v>
       </c>
     </row>
@@ -8739,7 +8789,7 @@
       <c r="G298" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H298" s="5">
+      <c r="H298" s="12">
         <v>18.29</v>
       </c>
     </row>
@@ -8753,8 +8803,8 @@
       <c r="C299" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D299" s="10" t="s">
-        <v>33</v>
+      <c r="D299" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E299" s="5" t="s">
         <v>0</v>
@@ -8765,8 +8815,8 @@
       <c r="G299" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H299" s="5">
-        <v>50000</v>
+      <c r="H299" s="12">
+        <v>59159</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8779,8 +8829,8 @@
       <c r="C300" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D300" s="10" t="s">
-        <v>33</v>
+      <c r="D300" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E300" s="5" t="s">
         <v>1</v>
@@ -8791,8 +8841,8 @@
       <c r="G300" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H300" s="5">
-        <v>50000</v>
+      <c r="H300" s="12">
+        <v>59159</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8817,7 +8867,7 @@
       <c r="G301" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H301" s="5">
+      <c r="H301" s="12">
         <v>1082231</v>
       </c>
     </row>
@@ -8843,7 +8893,7 @@
       <c r="G302" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H302" s="5">
+      <c r="H302" s="12">
         <v>306169</v>
       </c>
     </row>
@@ -8869,7 +8919,7 @@
       <c r="G303" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H303" s="5">
+      <c r="H303" s="12">
         <v>18.29</v>
       </c>
     </row>
@@ -8883,8 +8933,8 @@
       <c r="C304" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D304" s="10" t="s">
-        <v>33</v>
+      <c r="D304" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E304" s="5" t="s">
         <v>0</v>
@@ -8895,11 +8945,11 @@
       <c r="G304" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H304" s="5">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9">
+      <c r="H304" s="12">
+        <v>59159</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
       <c r="A305" s="3">
         <v>45747</v>
       </c>
@@ -8909,8 +8959,8 @@
       <c r="C305" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D305" s="10" t="s">
-        <v>33</v>
+      <c r="D305" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E305" s="5" t="s">
         <v>1</v>
@@ -8921,11 +8971,11 @@
       <c r="G305" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H305" s="5">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9">
+      <c r="H305" s="12">
+        <v>59159</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
       <c r="A306" s="3">
         <v>45747</v>
       </c>
@@ -8947,11 +8997,11 @@
       <c r="G306" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H306" s="5">
+      <c r="H306" s="12">
         <v>1999245</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:8">
       <c r="A307" s="3">
         <v>45747</v>
       </c>
@@ -8973,11 +9023,11 @@
       <c r="G307" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H307" s="5">
+      <c r="H307" s="12">
         <v>287526</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:8">
       <c r="A308" s="3">
         <v>45747</v>
       </c>
@@ -8999,11 +9049,11 @@
       <c r="G308" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H308" s="5">
+      <c r="H308" s="12">
         <v>18.29</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:8">
       <c r="A309" s="3">
         <v>45747</v>
       </c>
@@ -9013,138 +9063,138 @@
       <c r="C309" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D309" s="10" t="s">
+      <c r="D309" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E309" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F309" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G309" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H309" s="12">
+        <v>59159</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" ht="18">
+      <c r="A310" s="3">
+        <v>45747</v>
+      </c>
+      <c r="B310" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E309" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F309" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G309" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H309" s="5">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9">
-      <c r="A310" s="3">
-        <v>45777</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C310" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D310" s="10" t="s">
+      <c r="D310" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E310" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F310" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="G310" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H310" s="12">
+        <v>7897.04</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" ht="18">
+      <c r="A311" s="3">
+        <v>45747</v>
+      </c>
+      <c r="B311" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E310" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F310" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G310" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H310" s="5">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9">
-      <c r="A311" s="3">
-        <v>45777</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C311" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D311" s="10" t="s">
-        <v>33</v>
+      <c r="D311" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F311" s="5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G311" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H311" s="5">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9">
+      <c r="H311" s="12">
+        <v>7897.04</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
       <c r="A312" s="3">
         <v>45777</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="D312" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F312" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H312" s="5">
-        <v>1823004</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="H312" s="12">
+        <v>59159</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
       <c r="A313" s="3">
         <v>45777</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D313" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E313" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F313" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H313" s="5">
-        <v>462537</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="H313" s="12">
+        <v>59159</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314" s="3">
         <v>45777</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E314" s="5" t="s">
         <v>0</v>
@@ -9153,148 +9203,145 @@
         <v>1</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H314" s="5">
+        <v>2</v>
+      </c>
+      <c r="H314" s="12">
+        <v>1823004</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="A315" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E315" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F315" s="5">
+        <v>1</v>
+      </c>
+      <c r="G315" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H315" s="12">
+        <v>462537</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="A316" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E316" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F316" s="5">
+        <v>1</v>
+      </c>
+      <c r="G316" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H316" s="12">
         <v>18.29</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
-      <c r="A315" s="3">
-        <v>45808</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D315" s="10" t="s">
+    <row r="317" spans="1:8" ht="18">
+      <c r="A317" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B317" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E315" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F315" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G315" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H315" s="5">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9">
-      <c r="A316" s="3">
-        <v>45808</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D316" s="10" t="s">
+      <c r="C317" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D317" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E317" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F317" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="G317" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H317" s="12">
+        <v>7897.04</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" ht="18">
+      <c r="A318" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B318" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E316" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F316" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G316" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H316" s="5">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9">
-      <c r="A317" s="3">
-        <v>45808</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E317" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F317" s="5">
-        <v>1</v>
-      </c>
-      <c r="G317" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H317" s="5">
-        <v>1194671</v>
-      </c>
-      <c r="I317" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9">
-      <c r="A318" s="3">
-        <v>45808</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C318" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D318" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D318" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F318" s="5">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="G318" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H318" s="5">
-        <v>992073</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="H318" s="12">
+        <v>7897.04</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
       <c r="A319" s="3">
         <v>45808</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D319" s="2" t="s">
-        <v>14</v>
+      <c r="D319" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F319" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G319" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H319" s="5">
-        <v>18.29</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9">
+      <c r="H319" s="12">
+        <v>69159</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
       <c r="A320" s="3">
-        <v>45810</v>
+        <v>45808</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>15</v>
@@ -9302,11 +9349,11 @@
       <c r="C320" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D320" s="10" t="s">
-        <v>33</v>
+      <c r="D320" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F320" s="5">
         <v>0.5</v>
@@ -9314,48 +9361,51 @@
       <c r="G320" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H320" s="5">
-        <v>60000</v>
+      <c r="H320" s="12">
+        <v>69159</v>
       </c>
     </row>
     <row r="321" spans="1:9">
       <c r="A321" s="3">
-        <v>45810</v>
+        <v>45808</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D321" s="10" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E321" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F321" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H321" s="5">
-        <v>60000</v>
+        <v>2</v>
+      </c>
+      <c r="H321" s="12">
+        <v>1194671</v>
+      </c>
+      <c r="I321" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="322" spans="1:9">
       <c r="A322" s="3">
-        <v>45810</v>
+        <v>45808</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E322" s="5" t="s">
         <v>0</v>
@@ -9366,22 +9416,19 @@
       <c r="G322" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H322" s="5">
-        <v>1194671</v>
-      </c>
-      <c r="I322" s="2" t="s">
-        <v>24</v>
+      <c r="H322" s="12">
+        <v>992073</v>
       </c>
     </row>
     <row r="323" spans="1:9">
       <c r="A323" s="3">
-        <v>45810</v>
+        <v>45808</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>14</v>
@@ -9393,121 +9440,280 @@
         <v>1</v>
       </c>
       <c r="G323" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H323" s="5">
-        <v>992073</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="H323" s="12">
+        <v>18.29</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" ht="18">
       <c r="A324" s="3">
-        <v>45810</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>13</v>
+        <v>45808</v>
+      </c>
+      <c r="B324" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D324" s="2" t="s">
-        <v>14</v>
+      <c r="D324" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="E324" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F324" s="5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G324" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H324" s="5">
+      <c r="H324" s="12">
+        <v>7897.04</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" ht="18">
+      <c r="A325" s="3">
+        <v>45808</v>
+      </c>
+      <c r="B325" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D325" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E325" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F325" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="G325" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H325" s="12">
+        <v>7897.04</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
+      <c r="A326" s="3">
+        <v>45812</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D326" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E326" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F326" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G326" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H326" s="12">
+        <v>69159</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
+      <c r="A327" s="3">
+        <v>45812</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D327" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E327" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F327" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G327" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H327" s="12">
+        <v>69159</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
+      <c r="A328" s="3">
+        <v>45812</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F328" s="5">
+        <v>1</v>
+      </c>
+      <c r="G328" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H328" s="12">
+        <v>1199671</v>
+      </c>
+      <c r="I328" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
+      <c r="A329" s="3">
+        <v>45812</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E329" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F329" s="5">
+        <v>1</v>
+      </c>
+      <c r="G329" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H329" s="12">
+        <v>922392</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
+      <c r="A330" s="3">
+        <v>45812</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E330" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F330" s="5">
+        <v>1</v>
+      </c>
+      <c r="G330" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H330" s="12">
         <v>18.29</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="18">
-      <c r="A325" s="8">
-        <v>45810</v>
-      </c>
-      <c r="B325" s="9" t="s">
+    <row r="331" spans="1:9" ht="18">
+      <c r="A331" s="3">
+        <v>45812</v>
+      </c>
+      <c r="B331" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C331" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C325" s="9" t="s">
+      <c r="D331" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D325" s="9" t="s">
+      <c r="E331" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F331" s="7">
+        <v>1</v>
+      </c>
+      <c r="G331" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H331" s="13">
+        <v>1</v>
+      </c>
+      <c r="I331" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E325" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F325" s="7">
-        <v>1</v>
-      </c>
-      <c r="G325" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H325" s="7">
-        <v>1</v>
-      </c>
-      <c r="I325" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" ht="18">
-      <c r="A326" s="3">
-        <v>45810</v>
-      </c>
-      <c r="B326" s="11" t="s">
+    </row>
+    <row r="332" spans="1:9" ht="18">
+      <c r="A332" s="3">
+        <v>45812</v>
+      </c>
+      <c r="B332" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D332" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C326" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D326" s="10" t="s">
+      <c r="E332" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F332" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="G332" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H332" s="12">
+        <v>7897.04</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" ht="18">
+      <c r="A333" s="3">
+        <v>45812</v>
+      </c>
+      <c r="B333" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D333" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E333" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E326" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F326" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="G326" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H326" s="5">
+      <c r="F333" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="G333" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H333" s="12">
         <v>7897.04</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="18">
-      <c r="A327" s="3">
-        <v>45810</v>
-      </c>
-      <c r="B327" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D327" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E327" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F327" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="G327" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H327" s="5">
-        <v>7897.04</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I325" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I333" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/cash_accounts.xlsx
+++ b/data/cash_accounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanchuang/Desktop/資產計算/investment_tracker/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED24035-BF87-AF43-83BD-AB998C340735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEA9ECF-D5EF-064D-A035-1E25674263C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="1540" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_balance" sheetId="1" r:id="rId1"/>
@@ -955,8 +955,8 @@
   <dimension ref="A1:I327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D330" sqref="D330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -1158,7 +1158,7 @@
         <v>919098</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1">
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>43951</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" s="3">
         <v>43982</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="F9" s="5">
         <v>0.5</v>
@@ -1236,7 +1236,7 @@
         <v>583654</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1">
+    <row r="11" spans="1:9">
       <c r="A11" s="3">
         <v>43982</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" hidden="1">
       <c r="A13" s="3">
         <v>43982</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" s="3">
         <v>44012</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>1130828</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1">
+    <row r="16" spans="1:9">
       <c r="A16" s="3">
         <v>44012</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18" s="3">
         <v>44012</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19" s="3">
         <v>44043</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>186101</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1">
+    <row r="21" spans="1:9">
       <c r="A21" s="3">
         <v>44043</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" hidden="1">
       <c r="A23" s="3">
         <v>44043</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24" s="3">
         <v>44074</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1">
+    <row r="26" spans="1:9">
       <c r="A26" s="3">
         <v>44074</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" hidden="1">
       <c r="A28" s="3">
         <v>44074</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" hidden="1">
       <c r="A29" s="3">
         <v>44104</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>68408</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1">
+    <row r="31" spans="1:9">
       <c r="A31" s="3">
         <v>44104</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" hidden="1">
       <c r="A33" s="3">
         <v>44104</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" hidden="1">
       <c r="A34" s="3">
         <v>44135</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>10702</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1">
+    <row r="36" spans="1:9">
       <c r="A36" s="3">
         <v>44135</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" hidden="1">
       <c r="A38" s="3">
         <v>44135</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" hidden="1">
       <c r="A39" s="3">
         <v>44165</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1">
+    <row r="41" spans="1:9">
       <c r="A41" s="3">
         <v>44165</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" hidden="1">
       <c r="A43" s="3">
         <v>44165</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" hidden="1">
       <c r="A44" s="3">
         <v>44196</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1">
+    <row r="46" spans="1:9">
       <c r="A46" s="3">
         <v>44196</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" hidden="1">
       <c r="A48" s="3">
         <v>44196</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" hidden="1">
       <c r="A49" s="3">
         <v>44227</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>926522</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1">
+    <row r="51" spans="1:9">
       <c r="A51" s="3">
         <v>44227</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" hidden="1">
       <c r="A53" s="3">
         <v>44227</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" hidden="1">
       <c r="A54" s="3">
         <v>44255</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>926522</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1">
+    <row r="56" spans="1:9">
       <c r="A56" s="3">
         <v>44255</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" hidden="1">
       <c r="A58" s="3">
         <v>44255</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" hidden="1">
       <c r="A59" s="3">
         <v>44286</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>76092</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1">
+    <row r="61" spans="1:9">
       <c r="A61" s="3">
         <v>44286</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" hidden="1">
       <c r="A63" s="3">
         <v>44286</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" hidden="1">
       <c r="A64" s="3">
         <v>44316</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>104386</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1">
+    <row r="66" spans="1:9">
       <c r="A66" s="3">
         <v>44316</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" hidden="1">
       <c r="A68" s="3">
         <v>44316</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" hidden="1">
       <c r="A69" s="3">
         <v>44347</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>10751</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1">
+    <row r="71" spans="1:9">
       <c r="A71" s="3">
         <v>44347</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" hidden="1">
       <c r="A73" s="3">
         <v>44347</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>22220</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" hidden="1">
       <c r="A74" s="3">
         <v>44377</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>4153</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1">
+    <row r="76" spans="1:9">
       <c r="A76" s="3">
         <v>44377</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" hidden="1">
       <c r="A78" s="3">
         <v>44377</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>22220</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" hidden="1">
       <c r="A79" s="3">
         <v>44408</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1">
+    <row r="81" spans="1:8">
       <c r="A81" s="3">
         <v>44408</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" hidden="1">
       <c r="A83" s="3">
         <v>44408</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>22220</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" hidden="1">
       <c r="A84" s="3">
         <v>44439</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>82564</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1">
+    <row r="86" spans="1:8">
       <c r="A86" s="3">
         <v>44439</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" hidden="1">
       <c r="A88" s="3">
         <v>44439</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>22220</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" hidden="1">
       <c r="A89" s="3">
         <v>44469</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>870862</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1">
+    <row r="91" spans="1:8">
       <c r="A91" s="3">
         <v>44469</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" hidden="1">
       <c r="A93" s="3">
         <v>44469</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>22220</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" hidden="1">
       <c r="A94" s="3">
         <v>44500</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>325812</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1">
+    <row r="96" spans="1:8">
       <c r="A96" s="3">
         <v>44500</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" hidden="1">
       <c r="A98" s="3">
         <v>44500</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>22220</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" hidden="1">
       <c r="A99" s="3">
         <v>44530</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>193611</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1">
+    <row r="101" spans="1:8">
       <c r="A101" s="3">
         <v>44530</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" hidden="1">
       <c r="A103" s="3">
         <v>44530</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>22220</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" hidden="1">
       <c r="A104" s="3">
         <v>44561</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>75378</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1">
+    <row r="106" spans="1:8">
       <c r="A106" s="3">
         <v>44561</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" hidden="1">
       <c r="A108" s="3">
         <v>44561</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>22220</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" hidden="1">
       <c r="A109" s="3">
         <v>44592</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>151135</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1">
+    <row r="111" spans="1:8">
       <c r="A111" s="3">
         <v>44592</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" hidden="1">
       <c r="A113" s="3">
         <v>44592</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>22220</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" hidden="1">
       <c r="A114" s="3">
         <v>44620</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>152412</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1">
+    <row r="116" spans="1:9">
       <c r="A116" s="3">
         <v>44620</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" hidden="1">
       <c r="A118" s="3">
         <v>44620</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>22220</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" hidden="1">
       <c r="A119" s="3">
         <v>44651</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1">
+    <row r="121" spans="1:9">
       <c r="A121" s="3">
         <v>44651</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" hidden="1">
       <c r="A123" s="3">
         <v>44651</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>22220</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" hidden="1">
       <c r="A124" s="3">
         <v>44681</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>50858</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1">
+    <row r="126" spans="1:9">
       <c r="A126" s="3">
         <v>44681</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" hidden="1">
       <c r="A128" s="3">
         <v>44681</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>22220</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" hidden="1">
       <c r="A129" s="3">
         <v>44712</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>94956</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1">
+    <row r="131" spans="1:9">
       <c r="A131" s="3">
         <v>44712</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" hidden="1">
       <c r="A133" s="3">
         <v>44712</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>34484</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" hidden="1">
       <c r="A134" s="3">
         <v>44742</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1">
+    <row r="136" spans="1:9">
       <c r="A136" s="3">
         <v>44742</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" hidden="1">
       <c r="A138" s="3">
         <v>44742</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>34484</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" hidden="1">
       <c r="A139" s="3">
         <v>44773</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>126219</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1">
+    <row r="141" spans="1:9">
       <c r="A141" s="3">
         <v>44773</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" hidden="1">
       <c r="A143" s="3">
         <v>44773</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>34484</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" hidden="1">
       <c r="A144" s="3">
         <v>44804</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>122803</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1">
+    <row r="146" spans="1:8">
       <c r="A146" s="3">
         <v>44804</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" hidden="1">
       <c r="A148" s="3">
         <v>44804</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>34484</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" hidden="1">
       <c r="A149" s="3">
         <v>44834</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>131410</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1">
+    <row r="151" spans="1:8">
       <c r="A151" s="3">
         <v>44834</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" hidden="1">
       <c r="A153" s="3">
         <v>44834</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>34484</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" hidden="1">
       <c r="A154" s="3">
         <v>44865</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1">
+    <row r="156" spans="1:8">
       <c r="A156" s="3">
         <v>44865</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" hidden="1">
       <c r="A158" s="3">
         <v>44865</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>34484</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" hidden="1">
       <c r="A159" s="3">
         <v>44895</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>489493</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1">
+    <row r="161" spans="1:8">
       <c r="A161" s="3">
         <v>44895</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" hidden="1">
       <c r="A163" s="3">
         <v>44895</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>34484</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" hidden="1">
       <c r="A164" s="3">
         <v>44926</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>25415</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1">
+    <row r="166" spans="1:8">
       <c r="A166" s="3">
         <v>44926</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" hidden="1">
       <c r="A168" s="3">
         <v>44926</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>34484</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" hidden="1">
       <c r="A169" s="3">
         <v>44957</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>62305</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1">
+    <row r="171" spans="1:8">
       <c r="A171" s="3">
         <v>44957</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" hidden="1">
       <c r="A173" s="3">
         <v>44957</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>34484</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" hidden="1">
       <c r="A174" s="3">
         <v>44985</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>66305</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1">
+    <row r="176" spans="1:8">
       <c r="A176" s="3">
         <v>44985</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" hidden="1">
       <c r="A178" s="3">
         <v>44985</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>34484</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" hidden="1">
       <c r="A179" s="3">
         <v>45016</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>249592</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1">
+    <row r="181" spans="1:9">
       <c r="A181" s="3">
         <v>45016</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" hidden="1">
       <c r="A183" s="3">
         <v>45016</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>34484</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" hidden="1">
       <c r="A184" s="3">
         <v>45046</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>199063</v>
       </c>
     </row>
-    <row r="186" spans="1:9" hidden="1">
+    <row r="186" spans="1:9">
       <c r="A186" s="3">
         <v>45046</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" hidden="1">
       <c r="A188" s="3">
         <v>45046</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>34484</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" hidden="1">
       <c r="A189" s="3">
         <v>45077</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>410649</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1">
+    <row r="191" spans="1:9">
       <c r="A191" s="3">
         <v>45077</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" hidden="1">
       <c r="A193" s="3">
         <v>45077</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>46794</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" hidden="1">
       <c r="A194" s="3">
         <v>45107</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>410363</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1">
+    <row r="196" spans="1:8">
       <c r="A196" s="3">
         <v>45107</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" hidden="1">
       <c r="A198" s="3">
         <v>45107</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>46794</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" hidden="1">
       <c r="A199" s="3">
         <v>45138</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>413879</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1">
+    <row r="201" spans="1:8">
       <c r="A201" s="3">
         <v>45138</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" hidden="1">
       <c r="A203" s="3">
         <v>45138</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>46794</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" hidden="1">
       <c r="A204" s="3">
         <v>45169</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>72827</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1">
+    <row r="206" spans="1:8">
       <c r="A206" s="3">
         <v>45169</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" hidden="1">
       <c r="A208" s="3">
         <v>45169</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>46794</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" hidden="1">
       <c r="A209" s="3">
         <v>45199</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>23734</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1">
+    <row r="211" spans="1:8">
       <c r="A211" s="3">
         <v>45199</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" hidden="1">
       <c r="A213" s="3">
         <v>45199</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>46794</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" hidden="1">
       <c r="A214" s="3">
         <v>45230</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>24154</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1">
+    <row r="216" spans="1:8">
       <c r="A216" s="3">
         <v>45230</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" hidden="1">
       <c r="A218" s="3">
         <v>45230</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>46794</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" hidden="1">
       <c r="A219" s="3">
         <v>45260</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>3263</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1">
+    <row r="221" spans="1:8">
       <c r="A221" s="3">
         <v>45260</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" hidden="1">
       <c r="A223" s="3">
         <v>45260</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>46794</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" hidden="1">
       <c r="A224" s="3">
         <v>45291</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>68030</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1">
+    <row r="226" spans="1:8">
       <c r="A226" s="3">
         <v>45291</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" hidden="1">
       <c r="A228" s="3">
         <v>45291</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>46794</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" hidden="1">
       <c r="A229" s="3">
         <v>45322</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>6072</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1">
+    <row r="231" spans="1:8">
       <c r="A231" s="3">
         <v>45322</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" hidden="1">
       <c r="A233" s="3">
         <v>45322</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>77040</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1">
+    <row r="235" spans="1:8">
       <c r="A235" s="3">
         <v>45350</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" hidden="1">
       <c r="A237" s="3">
         <v>45351</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>46794</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" hidden="1">
       <c r="A238" s="3">
         <v>45351</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>46794</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" hidden="1">
       <c r="A239" s="3">
         <v>45382</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>7333</v>
       </c>
     </row>
-    <row r="241" spans="1:9" hidden="1">
+    <row r="241" spans="1:9">
       <c r="A241" s="3">
         <v>45382</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" hidden="1">
       <c r="A243" s="3">
         <v>45382</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>46794</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" hidden="1">
       <c r="A244" s="3">
         <v>45412</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1">
+    <row r="246" spans="1:9">
       <c r="A246" s="3">
         <v>45412</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" hidden="1">
       <c r="A248" s="3">
         <v>45412</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>46794</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" hidden="1">
       <c r="A249" s="3">
         <v>45443</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>83260</v>
       </c>
     </row>
-    <row r="251" spans="1:9" hidden="1">
+    <row r="251" spans="1:9">
       <c r="A251" s="3">
         <v>45443</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" hidden="1">
       <c r="A253" s="3">
         <v>45443</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>59159</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" hidden="1">
       <c r="A254" s="3">
         <v>45473</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>82763</v>
       </c>
     </row>
-    <row r="256" spans="1:9" hidden="1">
+    <row r="256" spans="1:9">
       <c r="A256" s="3">
         <v>45473</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" hidden="1">
       <c r="A258" s="3">
         <v>45473</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>59159</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" hidden="1">
       <c r="A259" s="3">
         <v>45504</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>18806</v>
       </c>
     </row>
-    <row r="261" spans="1:9" hidden="1">
+    <row r="261" spans="1:9">
       <c r="A261" s="3">
         <v>45504</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" hidden="1">
       <c r="A263" s="3">
         <v>45504</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>59159</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" hidden="1">
       <c r="A264" s="3">
         <v>45535</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>119704</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1">
+    <row r="266" spans="1:9">
       <c r="A266" s="3">
         <v>45535</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" hidden="1">
       <c r="A268" s="3">
         <v>45535</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>59159</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" hidden="1">
       <c r="A269" s="3">
         <v>45565</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>84784</v>
       </c>
     </row>
-    <row r="271" spans="1:9" hidden="1">
+    <row r="271" spans="1:9">
       <c r="A271" s="3">
         <v>45565</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" hidden="1">
       <c r="A273" s="3">
         <v>45565</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>59159</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" hidden="1">
       <c r="A274" s="3">
         <v>45596</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>86146</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1">
+    <row r="276" spans="1:8">
       <c r="A276" s="3">
         <v>45596</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" hidden="1">
       <c r="A278" s="3">
         <v>45596</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>59159</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" hidden="1">
       <c r="A279" s="3">
         <v>45626</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>81364</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1">
+    <row r="281" spans="1:8">
       <c r="A281" s="3">
         <v>45626</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" hidden="1">
       <c r="A283" s="3">
         <v>45626</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>59159</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" hidden="1">
       <c r="A284" s="3">
         <v>45657</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>111020</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1">
+    <row r="286" spans="1:8">
       <c r="A286" s="3">
         <v>45657</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>18.29</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" hidden="1">
       <c r="A288" s="3">
         <v>45657</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>59159</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" hidden="1">
       <c r="A289" s="3">
         <v>45688</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>1081686</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1">
+    <row r="291" spans="1:8">
       <c r="A291" s="3">
         <v>45688</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>18.29</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" hidden="1">
       <c r="A293" s="3">
         <v>45688</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>59159</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" hidden="1">
       <c r="A294" s="3">
         <v>45716</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>1082231</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1">
+    <row r="296" spans="1:8">
       <c r="A296" s="3">
         <v>45716</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>18.29</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" hidden="1">
       <c r="A298" s="3">
         <v>45716</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>59159</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" hidden="1">
       <c r="A299" s="3">
         <v>45747</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>1999245</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1">
+    <row r="301" spans="1:8">
       <c r="A301" s="3">
         <v>45747</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>18.29</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" hidden="1">
       <c r="A303" s="3">
         <v>45747</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>7897.04</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" hidden="1">
       <c r="A306" s="3">
         <v>45777</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>59159</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" hidden="1">
       <c r="A307" s="3">
         <v>45777</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>1823004</v>
       </c>
     </row>
-    <row r="309" spans="1:9" hidden="1">
+    <row r="309" spans="1:9">
       <c r="A309" s="3">
         <v>45777</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>7897.04</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" hidden="1">
       <c r="A313" s="3">
         <v>45808</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>69159</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" hidden="1">
       <c r="A314" s="3">
         <v>45808</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="316" spans="1:9" hidden="1">
+    <row r="316" spans="1:9">
       <c r="A316" s="3">
         <v>45808</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>7897.04</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" hidden="1">
       <c r="A320" s="3">
         <v>45812</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>69159</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" hidden="1">
       <c r="A321" s="3">
         <v>45812</v>
       </c>
@@ -9402,9 +9402,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="323" spans="1:9" hidden="1">
+    <row r="323" spans="1:9">
       <c r="A323" s="3">
-        <v>45818</v>
+        <v>45812</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>12</v>
@@ -9425,7 +9425,7 @@
         <v>2</v>
       </c>
       <c r="H323" s="12">
-        <v>1156787</v>
+        <v>922392</v>
       </c>
     </row>
     <row r="324" spans="1:9" hidden="1">
@@ -9454,7 +9454,7 @@
         <v>18.29</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="18" hidden="1">
+    <row r="325" spans="1:9" ht="18">
       <c r="A325" s="3">
         <v>45812</v>
       </c>
@@ -9539,7 +9539,7 @@
   <autoFilter ref="A1:I327" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
-        <filter val="美金定存"/>
+        <filter val="活存"/>
       </filters>
     </filterColumn>
   </autoFilter>
